--- a/school_excel_data/1学期中間/BAD_1学期中間_英語.xlsx
+++ b/school_excel_data/1学期中間/BAD_1学期中間_英語.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yasuyasu\Desktop\school\refactor\1学期中間\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yasuyasu\Desktop\school_excel_data\1学期中間\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -6307,7 +6307,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G1002"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -6365,7 +6367,7 @@
         <v>11</v>
       </c>
       <c r="G2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H2">
         <v>32</v>
@@ -6397,7 +6399,7 @@
         <v>16</v>
       </c>
       <c r="G3">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H3">
         <v>50</v>
@@ -6427,7 +6429,7 @@
         <v>19</v>
       </c>
       <c r="G4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H4">
         <v>57</v>
@@ -6459,7 +6461,7 @@
         <v>22</v>
       </c>
       <c r="G5">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="I5" t="s">
         <v>12</v>
@@ -6488,7 +6490,7 @@
         <v>25</v>
       </c>
       <c r="G6">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H6">
         <v>44</v>
@@ -6520,7 +6522,7 @@
         <v>11</v>
       </c>
       <c r="G7">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H7">
         <v>64</v>
@@ -6552,7 +6554,7 @@
         <v>16</v>
       </c>
       <c r="G8">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H8">
         <v>50</v>
@@ -6584,7 +6586,7 @@
         <v>19</v>
       </c>
       <c r="G9">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H9">
         <v>49</v>
@@ -6614,7 +6616,7 @@
         <v>22</v>
       </c>
       <c r="G10">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="I10" t="s">
         <v>12</v>
@@ -6643,7 +6645,7 @@
         <v>25</v>
       </c>
       <c r="G11">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H11">
         <v>78</v>
@@ -6675,7 +6677,7 @@
         <v>11</v>
       </c>
       <c r="G12">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H12">
         <v>66</v>
@@ -6707,7 +6709,7 @@
         <v>16</v>
       </c>
       <c r="G13">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H13">
         <v>61</v>
@@ -6739,7 +6741,7 @@
         <v>19</v>
       </c>
       <c r="G14">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H14">
         <v>63</v>
@@ -6771,7 +6773,7 @@
         <v>22</v>
       </c>
       <c r="G15">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H15">
         <v>49</v>
@@ -6803,7 +6805,7 @@
         <v>25</v>
       </c>
       <c r="G16">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H16">
         <v>80</v>
@@ -6835,7 +6837,7 @@
         <v>11</v>
       </c>
       <c r="G17">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H17">
         <v>81</v>
@@ -6867,7 +6869,7 @@
         <v>16</v>
       </c>
       <c r="G18">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H18">
         <v>55</v>
@@ -6899,7 +6901,7 @@
         <v>19</v>
       </c>
       <c r="G19">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H19">
         <v>66</v>
@@ -6931,7 +6933,7 @@
         <v>22</v>
       </c>
       <c r="G20">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H20">
         <v>39</v>
@@ -6963,7 +6965,7 @@
         <v>25</v>
       </c>
       <c r="G21">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H21">
         <v>55</v>
@@ -6995,7 +6997,7 @@
         <v>11</v>
       </c>
       <c r="G22">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H22">
         <v>74</v>
@@ -7027,7 +7029,7 @@
         <v>16</v>
       </c>
       <c r="G23">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H23">
         <v>75</v>
@@ -7057,7 +7059,7 @@
         <v>19</v>
       </c>
       <c r="G24">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="I24" t="s">
         <v>12</v>
@@ -7086,7 +7088,7 @@
         <v>22</v>
       </c>
       <c r="G25">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H25">
         <v>38</v>
@@ -7118,7 +7120,7 @@
         <v>25</v>
       </c>
       <c r="G26">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="I26" t="s">
         <v>12</v>
@@ -7147,7 +7149,7 @@
         <v>11</v>
       </c>
       <c r="G27">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H27">
         <v>63</v>
@@ -7179,7 +7181,7 @@
         <v>16</v>
       </c>
       <c r="G28">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H28">
         <v>69</v>
@@ -7211,7 +7213,7 @@
         <v>19</v>
       </c>
       <c r="G29">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H29">
         <v>88</v>
@@ -7241,7 +7243,7 @@
         <v>22</v>
       </c>
       <c r="G30">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H30">
         <v>58</v>
@@ -7273,7 +7275,7 @@
         <v>25</v>
       </c>
       <c r="G31">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H31">
         <v>49</v>
@@ -7305,7 +7307,7 @@
         <v>11</v>
       </c>
       <c r="G32">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H32">
         <v>77</v>
@@ -7337,7 +7339,7 @@
         <v>16</v>
       </c>
       <c r="G33">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H33">
         <v>71</v>
@@ -7369,7 +7371,7 @@
         <v>19</v>
       </c>
       <c r="G34">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H34">
         <v>42</v>
@@ -7401,7 +7403,7 @@
         <v>22</v>
       </c>
       <c r="G35">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H35">
         <v>44</v>
@@ -7433,7 +7435,7 @@
         <v>25</v>
       </c>
       <c r="G36">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H36">
         <v>88</v>
@@ -7465,7 +7467,7 @@
         <v>11</v>
       </c>
       <c r="G37">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H37">
         <v>70</v>
@@ -7497,7 +7499,7 @@
         <v>16</v>
       </c>
       <c r="G38">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H38">
         <v>54</v>
@@ -7527,7 +7529,7 @@
         <v>19</v>
       </c>
       <c r="G39">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H39">
         <v>51</v>
@@ -7559,7 +7561,7 @@
         <v>22</v>
       </c>
       <c r="G40">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H40">
         <v>62</v>
@@ -7591,7 +7593,7 @@
         <v>25</v>
       </c>
       <c r="G41">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H41">
         <v>82</v>
@@ -7623,7 +7625,7 @@
         <v>11</v>
       </c>
       <c r="G42">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H42">
         <v>35</v>
@@ -7655,7 +7657,7 @@
         <v>16</v>
       </c>
       <c r="G43">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H43">
         <v>67</v>
@@ -7687,7 +7689,7 @@
         <v>19</v>
       </c>
       <c r="G44">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H44">
         <v>74</v>
@@ -7719,7 +7721,7 @@
         <v>22</v>
       </c>
       <c r="G45">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H45">
         <v>72</v>
@@ -7751,7 +7753,7 @@
         <v>25</v>
       </c>
       <c r="G46">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H46">
         <v>78</v>
@@ -7783,7 +7785,7 @@
         <v>11</v>
       </c>
       <c r="G47">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H47">
         <v>45</v>
@@ -7815,7 +7817,7 @@
         <v>16</v>
       </c>
       <c r="G48">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H48">
         <v>51</v>
@@ -7847,7 +7849,7 @@
         <v>19</v>
       </c>
       <c r="G49">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H49">
         <v>76</v>
@@ -7879,7 +7881,7 @@
         <v>22</v>
       </c>
       <c r="G50">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H50">
         <v>80</v>
@@ -7911,7 +7913,7 @@
         <v>25</v>
       </c>
       <c r="G51">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H51">
         <v>84</v>
@@ -7943,7 +7945,7 @@
         <v>11</v>
       </c>
       <c r="G52">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H52">
         <v>57</v>
@@ -7975,7 +7977,7 @@
         <v>16</v>
       </c>
       <c r="G53">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H53">
         <v>79</v>
@@ -8007,7 +8009,7 @@
         <v>19</v>
       </c>
       <c r="G54">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H54">
         <v>72</v>
@@ -8039,7 +8041,7 @@
         <v>22</v>
       </c>
       <c r="G55">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H55">
         <v>86</v>
@@ -8071,7 +8073,7 @@
         <v>25</v>
       </c>
       <c r="G56">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H56">
         <v>85</v>
@@ -8103,7 +8105,7 @@
         <v>11</v>
       </c>
       <c r="G57">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H57">
         <v>49</v>
@@ -8135,7 +8137,7 @@
         <v>16</v>
       </c>
       <c r="G58">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H58">
         <v>68</v>
@@ -8167,7 +8169,7 @@
         <v>19</v>
       </c>
       <c r="G59">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H59">
         <v>54</v>
@@ -8199,7 +8201,7 @@
         <v>22</v>
       </c>
       <c r="G60">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H60">
         <v>31</v>
@@ -8231,7 +8233,7 @@
         <v>25</v>
       </c>
       <c r="G61">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H61">
         <v>69</v>
@@ -8263,7 +8265,7 @@
         <v>11</v>
       </c>
       <c r="G62">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H62">
         <v>41</v>
@@ -8295,7 +8297,7 @@
         <v>16</v>
       </c>
       <c r="G63">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H63">
         <v>51</v>
@@ -8327,7 +8329,7 @@
         <v>19</v>
       </c>
       <c r="G64">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H64">
         <v>52</v>
@@ -8359,7 +8361,7 @@
         <v>22</v>
       </c>
       <c r="G65">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H65">
         <v>41</v>
@@ -8391,7 +8393,7 @@
         <v>25</v>
       </c>
       <c r="G66">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H66">
         <v>38</v>
@@ -8423,7 +8425,7 @@
         <v>11</v>
       </c>
       <c r="G67">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H67">
         <v>50</v>
@@ -8455,7 +8457,7 @@
         <v>16</v>
       </c>
       <c r="G68">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H68">
         <v>81</v>
@@ -8487,7 +8489,7 @@
         <v>19</v>
       </c>
       <c r="G69">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H69">
         <v>60</v>
@@ -8519,7 +8521,7 @@
         <v>22</v>
       </c>
       <c r="G70">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H70">
         <v>97</v>
@@ -8551,7 +8553,7 @@
         <v>25</v>
       </c>
       <c r="G71">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H71">
         <v>65</v>
@@ -8583,7 +8585,7 @@
         <v>11</v>
       </c>
       <c r="G72">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H72">
         <v>90</v>
@@ -8615,7 +8617,7 @@
         <v>16</v>
       </c>
       <c r="G73">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H73">
         <v>49</v>
@@ -8647,7 +8649,7 @@
         <v>19</v>
       </c>
       <c r="G74">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H74">
         <v>35</v>
@@ -8679,7 +8681,7 @@
         <v>22</v>
       </c>
       <c r="G75">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H75">
         <v>51</v>
@@ -8711,7 +8713,7 @@
         <v>25</v>
       </c>
       <c r="G76">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H76">
         <v>58</v>
@@ -8743,7 +8745,7 @@
         <v>11</v>
       </c>
       <c r="G77">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H77">
         <v>72</v>
@@ -8775,7 +8777,7 @@
         <v>16</v>
       </c>
       <c r="G78">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H78">
         <v>95</v>
@@ -8807,7 +8809,7 @@
         <v>19</v>
       </c>
       <c r="G79">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H79">
         <v>73</v>
@@ -8839,7 +8841,7 @@
         <v>22</v>
       </c>
       <c r="G80">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H80">
         <v>71</v>
@@ -8871,7 +8873,7 @@
         <v>25</v>
       </c>
       <c r="G81">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H81">
         <v>17</v>
@@ -8903,7 +8905,7 @@
         <v>11</v>
       </c>
       <c r="G82">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H82">
         <v>26</v>
@@ -8935,7 +8937,7 @@
         <v>16</v>
       </c>
       <c r="G83">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H83">
         <v>50</v>
@@ -8967,7 +8969,7 @@
         <v>19</v>
       </c>
       <c r="G84">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H84">
         <v>56</v>
@@ -8999,7 +9001,7 @@
         <v>22</v>
       </c>
       <c r="G85">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H85">
         <v>65</v>
@@ -9031,7 +9033,7 @@
         <v>25</v>
       </c>
       <c r="G86">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H86">
         <v>60</v>
@@ -9063,7 +9065,7 @@
         <v>11</v>
       </c>
       <c r="G87">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H87">
         <v>68</v>
@@ -9095,7 +9097,7 @@
         <v>16</v>
       </c>
       <c r="G88">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H88">
         <v>38</v>
@@ -9127,7 +9129,7 @@
         <v>19</v>
       </c>
       <c r="G89">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H89">
         <v>78</v>
@@ -9159,7 +9161,7 @@
         <v>22</v>
       </c>
       <c r="G90">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H90">
         <v>65</v>
@@ -9191,7 +9193,7 @@
         <v>25</v>
       </c>
       <c r="G91">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H91">
         <v>33</v>
@@ -9223,7 +9225,7 @@
         <v>11</v>
       </c>
       <c r="G92">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H92">
         <v>75</v>
@@ -9255,7 +9257,7 @@
         <v>16</v>
       </c>
       <c r="G93">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H93">
         <v>60</v>
@@ -9287,7 +9289,7 @@
         <v>19</v>
       </c>
       <c r="G94">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H94">
         <v>68</v>
@@ -9319,7 +9321,7 @@
         <v>22</v>
       </c>
       <c r="G95">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H95">
         <v>70</v>
@@ -9351,7 +9353,7 @@
         <v>25</v>
       </c>
       <c r="G96">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H96">
         <v>80</v>
@@ -9383,7 +9385,7 @@
         <v>11</v>
       </c>
       <c r="G97">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H97">
         <v>55</v>
@@ -9415,7 +9417,7 @@
         <v>16</v>
       </c>
       <c r="G98">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H98">
         <v>35</v>
@@ -9447,7 +9449,7 @@
         <v>19</v>
       </c>
       <c r="G99">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H99">
         <v>24</v>
@@ -9479,7 +9481,7 @@
         <v>22</v>
       </c>
       <c r="G100">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H100">
         <v>61</v>
@@ -9511,7 +9513,7 @@
         <v>25</v>
       </c>
       <c r="G101">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H101">
         <v>63</v>
@@ -9543,7 +9545,7 @@
         <v>11</v>
       </c>
       <c r="G102">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H102">
         <v>68</v>
@@ -9575,7 +9577,7 @@
         <v>16</v>
       </c>
       <c r="G103">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H103">
         <v>16</v>
@@ -9607,7 +9609,7 @@
         <v>19</v>
       </c>
       <c r="G104">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H104">
         <v>60</v>
@@ -9639,7 +9641,7 @@
         <v>22</v>
       </c>
       <c r="G105">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H105">
         <v>27</v>
@@ -9671,7 +9673,7 @@
         <v>25</v>
       </c>
       <c r="G106">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H106">
         <v>38</v>
@@ -9703,7 +9705,7 @@
         <v>11</v>
       </c>
       <c r="G107">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H107">
         <v>49</v>
@@ -9735,7 +9737,7 @@
         <v>16</v>
       </c>
       <c r="G108">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H108">
         <v>79</v>
@@ -9767,7 +9769,7 @@
         <v>19</v>
       </c>
       <c r="G109">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H109">
         <v>41</v>
@@ -9799,7 +9801,7 @@
         <v>22</v>
       </c>
       <c r="G110">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H110">
         <v>74</v>
@@ -9831,7 +9833,7 @@
         <v>25</v>
       </c>
       <c r="G111">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H111">
         <v>62</v>
@@ -9863,7 +9865,7 @@
         <v>11</v>
       </c>
       <c r="G112">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H112">
         <v>49</v>
@@ -9895,7 +9897,7 @@
         <v>16</v>
       </c>
       <c r="G113">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H113">
         <v>18</v>
@@ -9927,7 +9929,7 @@
         <v>19</v>
       </c>
       <c r="G114">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H114">
         <v>68</v>
@@ -9959,7 +9961,7 @@
         <v>22</v>
       </c>
       <c r="G115">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H115">
         <v>65</v>
@@ -9991,7 +9993,7 @@
         <v>25</v>
       </c>
       <c r="G116">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H116">
         <v>90</v>
@@ -10023,7 +10025,7 @@
         <v>11</v>
       </c>
       <c r="G117">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H117">
         <v>97</v>
@@ -10055,7 +10057,7 @@
         <v>16</v>
       </c>
       <c r="G118">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H118">
         <v>65</v>
@@ -10087,7 +10089,7 @@
         <v>19</v>
       </c>
       <c r="G119">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H119">
         <v>86</v>
@@ -10119,7 +10121,7 @@
         <v>22</v>
       </c>
       <c r="G120">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H120">
         <v>83</v>
@@ -10151,7 +10153,7 @@
         <v>25</v>
       </c>
       <c r="G121">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H121">
         <v>84</v>
@@ -10183,7 +10185,7 @@
         <v>11</v>
       </c>
       <c r="G122">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H122">
         <v>52</v>
@@ -10215,7 +10217,7 @@
         <v>16</v>
       </c>
       <c r="G123">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H123">
         <v>59</v>
@@ -10247,7 +10249,7 @@
         <v>19</v>
       </c>
       <c r="G124">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H124">
         <v>42</v>
@@ -10279,7 +10281,7 @@
         <v>22</v>
       </c>
       <c r="G125">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H125">
         <v>43</v>
@@ -10311,7 +10313,7 @@
         <v>25</v>
       </c>
       <c r="G126">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H126">
         <v>52</v>
@@ -10343,7 +10345,7 @@
         <v>11</v>
       </c>
       <c r="G127">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H127">
         <v>73</v>
@@ -10375,7 +10377,7 @@
         <v>16</v>
       </c>
       <c r="G128">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H128">
         <v>77</v>
@@ -10407,7 +10409,7 @@
         <v>19</v>
       </c>
       <c r="G129">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H129">
         <v>81</v>
@@ -10439,7 +10441,7 @@
         <v>22</v>
       </c>
       <c r="G130">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H130">
         <v>35</v>
@@ -10471,7 +10473,7 @@
         <v>25</v>
       </c>
       <c r="G131">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H131">
         <v>68</v>
@@ -10503,7 +10505,7 @@
         <v>11</v>
       </c>
       <c r="G132">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H132">
         <v>62</v>
@@ -10535,7 +10537,7 @@
         <v>16</v>
       </c>
       <c r="G133">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H133">
         <v>64</v>
@@ -10567,7 +10569,7 @@
         <v>19</v>
       </c>
       <c r="G134">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H134">
         <v>78</v>
@@ -10599,7 +10601,7 @@
         <v>22</v>
       </c>
       <c r="G135">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H135">
         <v>44</v>
@@ -10631,7 +10633,7 @@
         <v>25</v>
       </c>
       <c r="G136">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H136">
         <v>48</v>
@@ -10663,7 +10665,7 @@
         <v>11</v>
       </c>
       <c r="G137">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H137">
         <v>52</v>
@@ -10695,7 +10697,7 @@
         <v>16</v>
       </c>
       <c r="G138">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H138">
         <v>66</v>
@@ -10727,7 +10729,7 @@
         <v>19</v>
       </c>
       <c r="G139">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H139">
         <v>76</v>
@@ -10759,7 +10761,7 @@
         <v>22</v>
       </c>
       <c r="G140">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H140">
         <v>75</v>
@@ -10791,7 +10793,7 @@
         <v>25</v>
       </c>
       <c r="G141">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H141">
         <v>76</v>
@@ -10823,7 +10825,7 @@
         <v>11</v>
       </c>
       <c r="G142">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H142">
         <v>52</v>
@@ -10855,7 +10857,7 @@
         <v>16</v>
       </c>
       <c r="G143">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H143">
         <v>55</v>
@@ -10887,7 +10889,7 @@
         <v>19</v>
       </c>
       <c r="G144">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H144">
         <v>87</v>
@@ -10919,7 +10921,7 @@
         <v>22</v>
       </c>
       <c r="G145">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H145">
         <v>75</v>
@@ -10951,7 +10953,7 @@
         <v>25</v>
       </c>
       <c r="G146">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H146">
         <v>69</v>
@@ -10983,7 +10985,7 @@
         <v>11</v>
       </c>
       <c r="G147">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H147">
         <v>75</v>
@@ -11015,7 +11017,7 @@
         <v>16</v>
       </c>
       <c r="G148">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H148">
         <v>30</v>
@@ -11047,7 +11049,7 @@
         <v>19</v>
       </c>
       <c r="G149">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H149">
         <v>60</v>
@@ -11079,7 +11081,7 @@
         <v>22</v>
       </c>
       <c r="G150">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H150">
         <v>49</v>
@@ -11111,7 +11113,7 @@
         <v>25</v>
       </c>
       <c r="G151">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H151">
         <v>47</v>
@@ -11143,7 +11145,7 @@
         <v>11</v>
       </c>
       <c r="G152">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H152">
         <v>89</v>
@@ -11175,7 +11177,7 @@
         <v>16</v>
       </c>
       <c r="G153">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H153">
         <v>38</v>
@@ -11207,7 +11209,7 @@
         <v>19</v>
       </c>
       <c r="G154">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H154">
         <v>100</v>
@@ -11239,7 +11241,7 @@
         <v>22</v>
       </c>
       <c r="G155">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H155">
         <v>32</v>
@@ -11271,7 +11273,7 @@
         <v>25</v>
       </c>
       <c r="G156">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H156">
         <v>70</v>
@@ -11303,7 +11305,7 @@
         <v>11</v>
       </c>
       <c r="G157">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H157">
         <v>68</v>
@@ -11335,7 +11337,7 @@
         <v>16</v>
       </c>
       <c r="G158">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H158">
         <v>55</v>
@@ -11367,7 +11369,7 @@
         <v>19</v>
       </c>
       <c r="G159">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H159">
         <v>31</v>
@@ -11399,7 +11401,7 @@
         <v>22</v>
       </c>
       <c r="G160">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H160">
         <v>71</v>
@@ -11431,7 +11433,7 @@
         <v>25</v>
       </c>
       <c r="G161">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H161">
         <v>35</v>
@@ -11463,7 +11465,7 @@
         <v>11</v>
       </c>
       <c r="G162">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H162">
         <v>50</v>
@@ -11495,7 +11497,7 @@
         <v>16</v>
       </c>
       <c r="G163">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H163">
         <v>34</v>
@@ -11527,7 +11529,7 @@
         <v>19</v>
       </c>
       <c r="G164">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H164">
         <v>57</v>
@@ -11559,7 +11561,7 @@
         <v>22</v>
       </c>
       <c r="G165">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H165">
         <v>52</v>
@@ -11591,7 +11593,7 @@
         <v>25</v>
       </c>
       <c r="G166">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H166">
         <v>49</v>
@@ -11623,7 +11625,7 @@
         <v>11</v>
       </c>
       <c r="G167">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H167">
         <v>65</v>
@@ -11655,7 +11657,7 @@
         <v>16</v>
       </c>
       <c r="G168">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H168">
         <v>100</v>
@@ -11687,7 +11689,7 @@
         <v>19</v>
       </c>
       <c r="G169">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H169">
         <v>100</v>
@@ -11719,7 +11721,7 @@
         <v>22</v>
       </c>
       <c r="G170">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H170">
         <v>60</v>
@@ -11751,7 +11753,7 @@
         <v>25</v>
       </c>
       <c r="G171">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H171">
         <v>43</v>
@@ -11783,7 +11785,7 @@
         <v>11</v>
       </c>
       <c r="G172">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H172">
         <v>52</v>
@@ -11815,7 +11817,7 @@
         <v>16</v>
       </c>
       <c r="G173">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H173">
         <v>51</v>
@@ -11847,7 +11849,7 @@
         <v>19</v>
       </c>
       <c r="G174">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H174">
         <v>64</v>
@@ -11879,7 +11881,7 @@
         <v>22</v>
       </c>
       <c r="G175">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H175">
         <v>82</v>
@@ -11911,7 +11913,7 @@
         <v>25</v>
       </c>
       <c r="G176">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H176">
         <v>83</v>
@@ -11943,7 +11945,7 @@
         <v>11</v>
       </c>
       <c r="G177">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H177">
         <v>83</v>
@@ -11975,7 +11977,7 @@
         <v>16</v>
       </c>
       <c r="G178">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H178">
         <v>44</v>
@@ -12007,7 +12009,7 @@
         <v>19</v>
       </c>
       <c r="G179">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H179">
         <v>77</v>
@@ -12039,7 +12041,7 @@
         <v>22</v>
       </c>
       <c r="G180">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H180">
         <v>61</v>
@@ -12071,7 +12073,7 @@
         <v>25</v>
       </c>
       <c r="G181">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H181">
         <v>84</v>
@@ -12103,7 +12105,7 @@
         <v>11</v>
       </c>
       <c r="G182">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H182">
         <v>37</v>
@@ -12135,7 +12137,7 @@
         <v>16</v>
       </c>
       <c r="G183">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H183">
         <v>81</v>
@@ -12167,7 +12169,7 @@
         <v>19</v>
       </c>
       <c r="G184">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H184">
         <v>19</v>
@@ -12199,7 +12201,7 @@
         <v>22</v>
       </c>
       <c r="G185">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H185">
         <v>56</v>
@@ -12231,7 +12233,7 @@
         <v>25</v>
       </c>
       <c r="G186">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H186">
         <v>81</v>
@@ -12263,7 +12265,7 @@
         <v>11</v>
       </c>
       <c r="G187">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H187">
         <v>86</v>
@@ -12295,7 +12297,7 @@
         <v>16</v>
       </c>
       <c r="G188">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H188">
         <v>57</v>
@@ -12327,7 +12329,7 @@
         <v>19</v>
       </c>
       <c r="G189">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H189">
         <v>42</v>
@@ -12359,7 +12361,7 @@
         <v>22</v>
       </c>
       <c r="G190">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H190">
         <v>75</v>
@@ -12391,7 +12393,7 @@
         <v>25</v>
       </c>
       <c r="G191">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H191">
         <v>43</v>
@@ -12423,7 +12425,7 @@
         <v>11</v>
       </c>
       <c r="G192">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H192">
         <v>96</v>
@@ -12455,7 +12457,7 @@
         <v>16</v>
       </c>
       <c r="G193">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H193">
         <v>40</v>
@@ -12487,7 +12489,7 @@
         <v>19</v>
       </c>
       <c r="G194">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H194">
         <v>94</v>
@@ -12519,7 +12521,7 @@
         <v>22</v>
       </c>
       <c r="G195">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H195">
         <v>85</v>
@@ -12551,7 +12553,7 @@
         <v>25</v>
       </c>
       <c r="G196">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H196">
         <v>100</v>
@@ -12583,7 +12585,7 @@
         <v>11</v>
       </c>
       <c r="G197">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H197">
         <v>37</v>
@@ -12615,7 +12617,7 @@
         <v>16</v>
       </c>
       <c r="G198">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H198">
         <v>49</v>
@@ -12647,7 +12649,7 @@
         <v>19</v>
       </c>
       <c r="G199">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H199">
         <v>47</v>
@@ -12679,7 +12681,7 @@
         <v>22</v>
       </c>
       <c r="G200">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H200">
         <v>80</v>
@@ -12711,7 +12713,7 @@
         <v>25</v>
       </c>
       <c r="G201">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H201">
         <v>52</v>
@@ -12743,7 +12745,7 @@
         <v>11</v>
       </c>
       <c r="G202">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H202">
         <v>46</v>
@@ -12775,7 +12777,7 @@
         <v>16</v>
       </c>
       <c r="G203">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H203">
         <v>81</v>
@@ -12807,7 +12809,7 @@
         <v>19</v>
       </c>
       <c r="G204">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H204">
         <v>96</v>
@@ -12839,7 +12841,7 @@
         <v>22</v>
       </c>
       <c r="G205">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H205">
         <v>52</v>
@@ -12871,7 +12873,7 @@
         <v>25</v>
       </c>
       <c r="G206">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H206">
         <v>73</v>
@@ -12903,7 +12905,7 @@
         <v>11</v>
       </c>
       <c r="G207">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H207">
         <v>79</v>
@@ -12935,7 +12937,7 @@
         <v>16</v>
       </c>
       <c r="G208">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H208">
         <v>72</v>
@@ -12967,7 +12969,7 @@
         <v>19</v>
       </c>
       <c r="G209">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H209">
         <v>6</v>
@@ -12999,7 +13001,7 @@
         <v>22</v>
       </c>
       <c r="G210">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H210">
         <v>89</v>
@@ -13031,7 +13033,7 @@
         <v>25</v>
       </c>
       <c r="G211">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H211">
         <v>69</v>
@@ -13063,7 +13065,7 @@
         <v>11</v>
       </c>
       <c r="G212">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H212">
         <v>45</v>
@@ -13095,7 +13097,7 @@
         <v>16</v>
       </c>
       <c r="G213">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H213">
         <v>54</v>
@@ -13127,7 +13129,7 @@
         <v>19</v>
       </c>
       <c r="G214">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H214">
         <v>76</v>
@@ -13159,7 +13161,7 @@
         <v>22</v>
       </c>
       <c r="G215">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H215">
         <v>79</v>
@@ -13191,7 +13193,7 @@
         <v>25</v>
       </c>
       <c r="G216">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H216">
         <v>65</v>
@@ -13223,7 +13225,7 @@
         <v>11</v>
       </c>
       <c r="G217">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H217">
         <v>25</v>
@@ -13255,7 +13257,7 @@
         <v>16</v>
       </c>
       <c r="G218">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H218">
         <v>81</v>
@@ -13287,7 +13289,7 @@
         <v>19</v>
       </c>
       <c r="G219">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H219">
         <v>66</v>
@@ -13319,7 +13321,7 @@
         <v>22</v>
       </c>
       <c r="G220">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H220">
         <v>77</v>
@@ -13351,7 +13353,7 @@
         <v>25</v>
       </c>
       <c r="G221">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H221">
         <v>41</v>
@@ -13383,7 +13385,7 @@
         <v>11</v>
       </c>
       <c r="G222">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H222">
         <v>58</v>
@@ -13415,7 +13417,7 @@
         <v>16</v>
       </c>
       <c r="G223">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H223">
         <v>58</v>
@@ -13447,7 +13449,7 @@
         <v>19</v>
       </c>
       <c r="G224">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H224">
         <v>48</v>
@@ -13479,7 +13481,7 @@
         <v>22</v>
       </c>
       <c r="G225">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H225">
         <v>98</v>
@@ -13511,7 +13513,7 @@
         <v>25</v>
       </c>
       <c r="G226">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H226">
         <v>63</v>
@@ -13543,7 +13545,7 @@
         <v>11</v>
       </c>
       <c r="G227">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H227">
         <v>51</v>
@@ -13575,7 +13577,7 @@
         <v>16</v>
       </c>
       <c r="G228">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H228">
         <v>74</v>
@@ -13607,7 +13609,7 @@
         <v>19</v>
       </c>
       <c r="G229">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H229">
         <v>67</v>
@@ -13639,7 +13641,7 @@
         <v>22</v>
       </c>
       <c r="G230">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H230">
         <v>60</v>
@@ -13671,7 +13673,7 @@
         <v>25</v>
       </c>
       <c r="G231">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H231">
         <v>24</v>
@@ -13703,7 +13705,7 @@
         <v>11</v>
       </c>
       <c r="G232">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H232">
         <v>41</v>
@@ -13735,7 +13737,7 @@
         <v>16</v>
       </c>
       <c r="G233">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H233">
         <v>48</v>
@@ -13767,7 +13769,7 @@
         <v>19</v>
       </c>
       <c r="G234">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H234">
         <v>33</v>
@@ -13799,7 +13801,7 @@
         <v>22</v>
       </c>
       <c r="G235">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H235">
         <v>58</v>
@@ -13831,7 +13833,7 @@
         <v>25</v>
       </c>
       <c r="G236">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H236">
         <v>66</v>
@@ -13863,7 +13865,7 @@
         <v>11</v>
       </c>
       <c r="G237">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H237">
         <v>51</v>
@@ -13895,7 +13897,7 @@
         <v>16</v>
       </c>
       <c r="G238">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H238">
         <v>74</v>
@@ -13927,7 +13929,7 @@
         <v>19</v>
       </c>
       <c r="G239">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H239">
         <v>69</v>
@@ -13959,7 +13961,7 @@
         <v>22</v>
       </c>
       <c r="G240">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H240">
         <v>60</v>
@@ -13991,7 +13993,7 @@
         <v>25</v>
       </c>
       <c r="G241">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H241">
         <v>61</v>
@@ -14023,7 +14025,7 @@
         <v>11</v>
       </c>
       <c r="G242">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H242">
         <v>82</v>
@@ -14055,7 +14057,7 @@
         <v>16</v>
       </c>
       <c r="G243">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H243">
         <v>65</v>
@@ -14087,7 +14089,7 @@
         <v>19</v>
       </c>
       <c r="G244">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H244">
         <v>100</v>
@@ -14119,7 +14121,7 @@
         <v>22</v>
       </c>
       <c r="G245">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H245">
         <v>62</v>
@@ -14151,7 +14153,7 @@
         <v>25</v>
       </c>
       <c r="G246">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H246">
         <v>31</v>
@@ -14183,7 +14185,7 @@
         <v>11</v>
       </c>
       <c r="G247">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H247">
         <v>87</v>
@@ -14215,7 +14217,7 @@
         <v>16</v>
       </c>
       <c r="G248">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H248">
         <v>25</v>
@@ -14247,7 +14249,7 @@
         <v>19</v>
       </c>
       <c r="G249">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H249">
         <v>37</v>
@@ -14279,7 +14281,7 @@
         <v>22</v>
       </c>
       <c r="G250">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H250">
         <v>71</v>
@@ -14311,7 +14313,7 @@
         <v>25</v>
       </c>
       <c r="G251">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H251">
         <v>58</v>
@@ -14343,7 +14345,7 @@
         <v>11</v>
       </c>
       <c r="G252">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H252">
         <v>91</v>
@@ -14375,7 +14377,7 @@
         <v>16</v>
       </c>
       <c r="G253">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H253">
         <v>73</v>
@@ -14407,7 +14409,7 @@
         <v>19</v>
       </c>
       <c r="G254">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H254">
         <v>69</v>
@@ -14439,7 +14441,7 @@
         <v>22</v>
       </c>
       <c r="G255">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H255">
         <v>75</v>
@@ -14471,7 +14473,7 @@
         <v>25</v>
       </c>
       <c r="G256">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H256">
         <v>71</v>
@@ -14503,7 +14505,7 @@
         <v>11</v>
       </c>
       <c r="G257">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H257">
         <v>62</v>
@@ -14535,7 +14537,7 @@
         <v>16</v>
       </c>
       <c r="G258">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H258">
         <v>64</v>
@@ -14567,7 +14569,7 @@
         <v>19</v>
       </c>
       <c r="G259">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H259">
         <v>34</v>
@@ -14599,7 +14601,7 @@
         <v>22</v>
       </c>
       <c r="G260">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H260">
         <v>53</v>
@@ -14631,7 +14633,7 @@
         <v>25</v>
       </c>
       <c r="G261">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H261">
         <v>59</v>
@@ -14663,7 +14665,7 @@
         <v>11</v>
       </c>
       <c r="G262">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H262">
         <v>51</v>
@@ -14695,7 +14697,7 @@
         <v>16</v>
       </c>
       <c r="G263">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H263">
         <v>50</v>
@@ -14727,7 +14729,7 @@
         <v>19</v>
       </c>
       <c r="G264">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H264">
         <v>46</v>
@@ -14759,7 +14761,7 @@
         <v>22</v>
       </c>
       <c r="G265">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H265">
         <v>66</v>
@@ -14791,7 +14793,7 @@
         <v>25</v>
       </c>
       <c r="G266">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H266">
         <v>68</v>
@@ -14823,7 +14825,7 @@
         <v>11</v>
       </c>
       <c r="G267">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H267">
         <v>71</v>
@@ -14855,7 +14857,7 @@
         <v>16</v>
       </c>
       <c r="G268">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H268">
         <v>44</v>
@@ -14887,7 +14889,7 @@
         <v>19</v>
       </c>
       <c r="G269">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H269">
         <v>91</v>
@@ -14919,7 +14921,7 @@
         <v>22</v>
       </c>
       <c r="G270">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H270">
         <v>58</v>
@@ -14951,7 +14953,7 @@
         <v>25</v>
       </c>
       <c r="G271">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H271">
         <v>59</v>
@@ -14983,7 +14985,7 @@
         <v>11</v>
       </c>
       <c r="G272">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H272">
         <v>74</v>
@@ -15015,7 +15017,7 @@
         <v>16</v>
       </c>
       <c r="G273">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H273">
         <v>91</v>
@@ -15047,7 +15049,7 @@
         <v>19</v>
       </c>
       <c r="G274">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H274">
         <v>58</v>
@@ -15079,7 +15081,7 @@
         <v>22</v>
       </c>
       <c r="G275">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H275">
         <v>59</v>
@@ -15111,7 +15113,7 @@
         <v>25</v>
       </c>
       <c r="G276">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H276">
         <v>68</v>
@@ -15143,7 +15145,7 @@
         <v>11</v>
       </c>
       <c r="G277">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H277">
         <v>23</v>
@@ -15175,7 +15177,7 @@
         <v>16</v>
       </c>
       <c r="G278">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H278">
         <v>63</v>
@@ -15207,7 +15209,7 @@
         <v>19</v>
       </c>
       <c r="G279">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H279">
         <v>77</v>
@@ -15239,7 +15241,7 @@
         <v>22</v>
       </c>
       <c r="G280">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H280">
         <v>75</v>
@@ -15271,7 +15273,7 @@
         <v>25</v>
       </c>
       <c r="G281">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H281">
         <v>91</v>
@@ -15303,7 +15305,7 @@
         <v>11</v>
       </c>
       <c r="G282">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H282">
         <v>59</v>
@@ -15335,7 +15337,7 @@
         <v>16</v>
       </c>
       <c r="G283">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H283">
         <v>100</v>
@@ -15367,7 +15369,7 @@
         <v>19</v>
       </c>
       <c r="G284">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H284">
         <v>44</v>
@@ -15399,7 +15401,7 @@
         <v>22</v>
       </c>
       <c r="G285">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H285">
         <v>60</v>
@@ -15431,7 +15433,7 @@
         <v>25</v>
       </c>
       <c r="G286">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H286">
         <v>81</v>
@@ -15463,7 +15465,7 @@
         <v>11</v>
       </c>
       <c r="G287">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H287">
         <v>70</v>
@@ -15495,7 +15497,7 @@
         <v>16</v>
       </c>
       <c r="G288">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H288">
         <v>53</v>
@@ -15527,7 +15529,7 @@
         <v>19</v>
       </c>
       <c r="G289">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H289">
         <v>82</v>
@@ -15559,7 +15561,7 @@
         <v>22</v>
       </c>
       <c r="G290">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H290">
         <v>41</v>
@@ -15591,7 +15593,7 @@
         <v>25</v>
       </c>
       <c r="G291">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H291">
         <v>70</v>
@@ -15623,7 +15625,7 @@
         <v>11</v>
       </c>
       <c r="G292">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H292">
         <v>54</v>
@@ -15655,7 +15657,7 @@
         <v>16</v>
       </c>
       <c r="G293">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H293">
         <v>59</v>
@@ -15687,7 +15689,7 @@
         <v>19</v>
       </c>
       <c r="G294">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H294">
         <v>54</v>
@@ -15719,7 +15721,7 @@
         <v>22</v>
       </c>
       <c r="G295">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H295">
         <v>59</v>
@@ -15751,7 +15753,7 @@
         <v>25</v>
       </c>
       <c r="G296">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H296">
         <v>76</v>
@@ -15783,7 +15785,7 @@
         <v>11</v>
       </c>
       <c r="G297">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H297">
         <v>60</v>
@@ -15815,7 +15817,7 @@
         <v>16</v>
       </c>
       <c r="G298">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H298">
         <v>71</v>
@@ -15847,7 +15849,7 @@
         <v>19</v>
       </c>
       <c r="G299">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H299">
         <v>92</v>
@@ -15879,7 +15881,7 @@
         <v>22</v>
       </c>
       <c r="G300">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H300">
         <v>32</v>
@@ -15911,7 +15913,7 @@
         <v>25</v>
       </c>
       <c r="G301">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H301">
         <v>70</v>
@@ -15943,7 +15945,7 @@
         <v>11</v>
       </c>
       <c r="G302">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H302">
         <v>42</v>
@@ -15975,7 +15977,7 @@
         <v>16</v>
       </c>
       <c r="G303">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H303">
         <v>55</v>
@@ -16007,7 +16009,7 @@
         <v>19</v>
       </c>
       <c r="G304">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H304">
         <v>50</v>
@@ -16039,7 +16041,7 @@
         <v>22</v>
       </c>
       <c r="G305">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H305">
         <v>60</v>
@@ -16071,7 +16073,7 @@
         <v>25</v>
       </c>
       <c r="G306">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H306">
         <v>91</v>
@@ -16103,7 +16105,7 @@
         <v>11</v>
       </c>
       <c r="G307">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H307">
         <v>49</v>
@@ -16135,7 +16137,7 @@
         <v>16</v>
       </c>
       <c r="G308">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H308">
         <v>72</v>
@@ -16167,7 +16169,7 @@
         <v>19</v>
       </c>
       <c r="G309">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H309">
         <v>20</v>
@@ -16199,7 +16201,7 @@
         <v>22</v>
       </c>
       <c r="G310">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H310">
         <v>45</v>
@@ -16231,7 +16233,7 @@
         <v>25</v>
       </c>
       <c r="G311">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H311">
         <v>70</v>
@@ -16263,7 +16265,7 @@
         <v>11</v>
       </c>
       <c r="G312">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H312">
         <v>63</v>
@@ -16295,7 +16297,7 @@
         <v>16</v>
       </c>
       <c r="G313">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H313">
         <v>37</v>
@@ -16327,7 +16329,7 @@
         <v>19</v>
       </c>
       <c r="G314">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H314">
         <v>51</v>
@@ -16359,7 +16361,7 @@
         <v>22</v>
       </c>
       <c r="G315">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H315">
         <v>76</v>
@@ -16391,7 +16393,7 @@
         <v>25</v>
       </c>
       <c r="G316">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H316">
         <v>71</v>
@@ -16423,7 +16425,7 @@
         <v>11</v>
       </c>
       <c r="G317">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H317">
         <v>91</v>
@@ -16455,7 +16457,7 @@
         <v>16</v>
       </c>
       <c r="G318">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H318">
         <v>90</v>
@@ -16487,7 +16489,7 @@
         <v>19</v>
       </c>
       <c r="G319">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H319">
         <v>29</v>
@@ -16519,7 +16521,7 @@
         <v>22</v>
       </c>
       <c r="G320">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H320">
         <v>69</v>
@@ -16551,7 +16553,7 @@
         <v>25</v>
       </c>
       <c r="G321">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H321">
         <v>62</v>
@@ -16583,7 +16585,7 @@
         <v>11</v>
       </c>
       <c r="G322">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H322">
         <v>53</v>
@@ -16615,7 +16617,7 @@
         <v>16</v>
       </c>
       <c r="G323">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H323">
         <v>27</v>
@@ -16647,7 +16649,7 @@
         <v>19</v>
       </c>
       <c r="G324">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H324">
         <v>65</v>
@@ -16679,7 +16681,7 @@
         <v>22</v>
       </c>
       <c r="G325">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H325">
         <v>93</v>
@@ -16711,7 +16713,7 @@
         <v>25</v>
       </c>
       <c r="G326">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H326">
         <v>71</v>
@@ -16743,7 +16745,7 @@
         <v>11</v>
       </c>
       <c r="G327">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H327">
         <v>50</v>
@@ -16775,7 +16777,7 @@
         <v>16</v>
       </c>
       <c r="G328">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H328">
         <v>47</v>
@@ -16807,7 +16809,7 @@
         <v>19</v>
       </c>
       <c r="G329">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H329">
         <v>77</v>
@@ -16839,7 +16841,7 @@
         <v>22</v>
       </c>
       <c r="G330">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H330">
         <v>69</v>
@@ -16871,7 +16873,7 @@
         <v>25</v>
       </c>
       <c r="G331">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H331">
         <v>27</v>
@@ -16903,7 +16905,7 @@
         <v>11</v>
       </c>
       <c r="G332">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H332">
         <v>40</v>
@@ -16935,7 +16937,7 @@
         <v>16</v>
       </c>
       <c r="G333">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H333">
         <v>72</v>
@@ -16967,7 +16969,7 @@
         <v>19</v>
       </c>
       <c r="G334">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H334">
         <v>46</v>
@@ -16999,7 +17001,7 @@
         <v>22</v>
       </c>
       <c r="G335">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H335">
         <v>91</v>
@@ -17031,7 +17033,7 @@
         <v>25</v>
       </c>
       <c r="G336">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H336">
         <v>33</v>
@@ -17063,7 +17065,7 @@
         <v>11</v>
       </c>
       <c r="G337">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H337">
         <v>63</v>
@@ -17095,7 +17097,7 @@
         <v>16</v>
       </c>
       <c r="G338">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H338">
         <v>69</v>
@@ -17127,7 +17129,7 @@
         <v>19</v>
       </c>
       <c r="G339">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H339">
         <v>77</v>
@@ -17159,7 +17161,7 @@
         <v>22</v>
       </c>
       <c r="G340">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H340">
         <v>52</v>
@@ -17191,7 +17193,7 @@
         <v>25</v>
       </c>
       <c r="G341">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H341">
         <v>68</v>
@@ -17223,7 +17225,7 @@
         <v>11</v>
       </c>
       <c r="G342">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H342">
         <v>14</v>
@@ -17255,7 +17257,7 @@
         <v>16</v>
       </c>
       <c r="G343">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H343">
         <v>58</v>
@@ -17287,7 +17289,7 @@
         <v>19</v>
       </c>
       <c r="G344">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H344">
         <v>47</v>
@@ -17319,7 +17321,7 @@
         <v>22</v>
       </c>
       <c r="G345">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H345">
         <v>85</v>
@@ -17351,7 +17353,7 @@
         <v>25</v>
       </c>
       <c r="G346">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H346">
         <v>55</v>
@@ -17383,7 +17385,7 @@
         <v>11</v>
       </c>
       <c r="G347">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H347">
         <v>69</v>
@@ -17415,7 +17417,7 @@
         <v>16</v>
       </c>
       <c r="G348">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H348">
         <v>100</v>
@@ -17447,7 +17449,7 @@
         <v>19</v>
       </c>
       <c r="G349">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H349">
         <v>68</v>
@@ -17479,7 +17481,7 @@
         <v>22</v>
       </c>
       <c r="G350">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H350">
         <v>50</v>
@@ -17511,7 +17513,7 @@
         <v>25</v>
       </c>
       <c r="G351">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H351">
         <v>35</v>
@@ -17543,7 +17545,7 @@
         <v>11</v>
       </c>
       <c r="G352">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H352">
         <v>76</v>
@@ -17575,7 +17577,7 @@
         <v>16</v>
       </c>
       <c r="G353">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H353">
         <v>46</v>
@@ -17607,7 +17609,7 @@
         <v>19</v>
       </c>
       <c r="G354">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H354">
         <v>31</v>
@@ -17639,7 +17641,7 @@
         <v>22</v>
       </c>
       <c r="G355">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H355">
         <v>82</v>
@@ -17671,7 +17673,7 @@
         <v>25</v>
       </c>
       <c r="G356">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H356">
         <v>58</v>
@@ -17703,7 +17705,7 @@
         <v>11</v>
       </c>
       <c r="G357">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H357">
         <v>58</v>
@@ -17735,7 +17737,7 @@
         <v>16</v>
       </c>
       <c r="G358">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H358">
         <v>83</v>
@@ -17767,7 +17769,7 @@
         <v>19</v>
       </c>
       <c r="G359">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H359">
         <v>32</v>
@@ -17799,7 +17801,7 @@
         <v>22</v>
       </c>
       <c r="G360">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H360">
         <v>59</v>
@@ -17831,7 +17833,7 @@
         <v>25</v>
       </c>
       <c r="G361">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H361">
         <v>95</v>
@@ -17863,7 +17865,7 @@
         <v>11</v>
       </c>
       <c r="G362">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H362">
         <v>91</v>
@@ -17895,7 +17897,7 @@
         <v>16</v>
       </c>
       <c r="G363">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H363">
         <v>83</v>
@@ -17927,7 +17929,7 @@
         <v>19</v>
       </c>
       <c r="G364">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H364">
         <v>42</v>
@@ -17959,7 +17961,7 @@
         <v>22</v>
       </c>
       <c r="G365">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H365">
         <v>47</v>
@@ -17991,7 +17993,7 @@
         <v>25</v>
       </c>
       <c r="G366">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H366">
         <v>22</v>
@@ -18023,7 +18025,7 @@
         <v>11</v>
       </c>
       <c r="G367">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H367">
         <v>71</v>
@@ -18055,7 +18057,7 @@
         <v>16</v>
       </c>
       <c r="G368">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H368">
         <v>66</v>
@@ -18087,7 +18089,7 @@
         <v>19</v>
       </c>
       <c r="G369">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H369">
         <v>84</v>
@@ -18119,7 +18121,7 @@
         <v>22</v>
       </c>
       <c r="G370">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H370">
         <v>60</v>
@@ -18151,7 +18153,7 @@
         <v>25</v>
       </c>
       <c r="G371">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H371">
         <v>68</v>
@@ -18183,7 +18185,7 @@
         <v>11</v>
       </c>
       <c r="G372">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H372">
         <v>44</v>
@@ -18215,7 +18217,7 @@
         <v>16</v>
       </c>
       <c r="G373">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H373">
         <v>37</v>
@@ -18247,7 +18249,7 @@
         <v>19</v>
       </c>
       <c r="G374">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H374">
         <v>60</v>
@@ -18279,7 +18281,7 @@
         <v>22</v>
       </c>
       <c r="G375">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H375">
         <v>79</v>
@@ -18311,7 +18313,7 @@
         <v>25</v>
       </c>
       <c r="G376">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H376">
         <v>73</v>
@@ -18343,7 +18345,7 @@
         <v>11</v>
       </c>
       <c r="G377">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H377">
         <v>56</v>
@@ -18375,7 +18377,7 @@
         <v>16</v>
       </c>
       <c r="G378">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H378">
         <v>96</v>
@@ -18407,7 +18409,7 @@
         <v>19</v>
       </c>
       <c r="G379">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H379">
         <v>72</v>
@@ -18439,7 +18441,7 @@
         <v>22</v>
       </c>
       <c r="G380">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H380">
         <v>21</v>
@@ -18471,7 +18473,7 @@
         <v>25</v>
       </c>
       <c r="G381">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H381">
         <v>61</v>
@@ -18503,7 +18505,7 @@
         <v>11</v>
       </c>
       <c r="G382">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H382">
         <v>42</v>
@@ -18535,7 +18537,7 @@
         <v>16</v>
       </c>
       <c r="G383">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H383">
         <v>62</v>
@@ -18567,7 +18569,7 @@
         <v>19</v>
       </c>
       <c r="G384">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H384">
         <v>46</v>
@@ -18599,7 +18601,7 @@
         <v>22</v>
       </c>
       <c r="G385">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H385">
         <v>77</v>
@@ -18631,7 +18633,7 @@
         <v>25</v>
       </c>
       <c r="G386">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H386">
         <v>48</v>
@@ -18663,7 +18665,7 @@
         <v>11</v>
       </c>
       <c r="G387">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H387">
         <v>68</v>
@@ -18695,7 +18697,7 @@
         <v>16</v>
       </c>
       <c r="G388">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H388">
         <v>76</v>
@@ -18727,7 +18729,7 @@
         <v>19</v>
       </c>
       <c r="G389">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H389">
         <v>47</v>
@@ -18759,7 +18761,7 @@
         <v>22</v>
       </c>
       <c r="G390">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H390">
         <v>32</v>
@@ -18791,7 +18793,7 @@
         <v>25</v>
       </c>
       <c r="G391">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H391">
         <v>71</v>
@@ -18823,7 +18825,7 @@
         <v>11</v>
       </c>
       <c r="G392">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H392">
         <v>38</v>
@@ -18855,7 +18857,7 @@
         <v>16</v>
       </c>
       <c r="G393">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H393">
         <v>78</v>
@@ -18887,7 +18889,7 @@
         <v>19</v>
       </c>
       <c r="G394">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H394">
         <v>53</v>
@@ -18919,7 +18921,7 @@
         <v>22</v>
       </c>
       <c r="G395">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H395">
         <v>31</v>
@@ -18951,7 +18953,7 @@
         <v>25</v>
       </c>
       <c r="G396">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H396">
         <v>59</v>
@@ -18983,7 +18985,7 @@
         <v>11</v>
       </c>
       <c r="G397">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H397">
         <v>19</v>
@@ -19015,7 +19017,7 @@
         <v>16</v>
       </c>
       <c r="G398">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H398">
         <v>53</v>
@@ -19047,7 +19049,7 @@
         <v>19</v>
       </c>
       <c r="G399">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H399">
         <v>79</v>
@@ -19079,7 +19081,7 @@
         <v>22</v>
       </c>
       <c r="G400">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H400">
         <v>51</v>
@@ -19111,7 +19113,7 @@
         <v>25</v>
       </c>
       <c r="G401">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H401">
         <v>81</v>
@@ -19143,7 +19145,7 @@
         <v>11</v>
       </c>
       <c r="G402">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H402">
         <v>55</v>
@@ -19175,7 +19177,7 @@
         <v>16</v>
       </c>
       <c r="G403">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H403">
         <v>72</v>
@@ -19207,7 +19209,7 @@
         <v>19</v>
       </c>
       <c r="G404">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H404">
         <v>83</v>
@@ -19239,7 +19241,7 @@
         <v>22</v>
       </c>
       <c r="G405">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H405">
         <v>91</v>
@@ -19271,7 +19273,7 @@
         <v>25</v>
       </c>
       <c r="G406">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H406">
         <v>61</v>
@@ -19303,7 +19305,7 @@
         <v>11</v>
       </c>
       <c r="G407">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H407">
         <v>55</v>
@@ -19335,7 +19337,7 @@
         <v>16</v>
       </c>
       <c r="G408">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H408">
         <v>36</v>
@@ -19367,7 +19369,7 @@
         <v>19</v>
       </c>
       <c r="G409">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H409">
         <v>49</v>
@@ -19399,7 +19401,7 @@
         <v>22</v>
       </c>
       <c r="G410">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H410">
         <v>72</v>
@@ -19431,7 +19433,7 @@
         <v>25</v>
       </c>
       <c r="G411">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H411">
         <v>27</v>
@@ -19463,7 +19465,7 @@
         <v>11</v>
       </c>
       <c r="G412">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H412">
         <v>54</v>
@@ -19495,7 +19497,7 @@
         <v>16</v>
       </c>
       <c r="G413">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H413">
         <v>53</v>
@@ -19527,7 +19529,7 @@
         <v>19</v>
       </c>
       <c r="G414">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H414">
         <v>45</v>
@@ -19559,7 +19561,7 @@
         <v>22</v>
       </c>
       <c r="G415">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H415">
         <v>73</v>
@@ -19591,7 +19593,7 @@
         <v>25</v>
       </c>
       <c r="G416">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H416">
         <v>35</v>
@@ -19623,7 +19625,7 @@
         <v>11</v>
       </c>
       <c r="G417">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H417">
         <v>58</v>
@@ -19655,7 +19657,7 @@
         <v>16</v>
       </c>
       <c r="G418">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H418">
         <v>52</v>
@@ -19687,7 +19689,7 @@
         <v>19</v>
       </c>
       <c r="G419">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H419">
         <v>89</v>
@@ -19719,7 +19721,7 @@
         <v>22</v>
       </c>
       <c r="G420">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H420">
         <v>90</v>
@@ -19751,7 +19753,7 @@
         <v>25</v>
       </c>
       <c r="G421">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H421">
         <v>69</v>
@@ -19783,7 +19785,7 @@
         <v>11</v>
       </c>
       <c r="G422">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H422">
         <v>100</v>
@@ -19815,7 +19817,7 @@
         <v>16</v>
       </c>
       <c r="G423">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H423">
         <v>89</v>
@@ -19847,7 +19849,7 @@
         <v>19</v>
       </c>
       <c r="G424">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H424">
         <v>67</v>
@@ -19879,7 +19881,7 @@
         <v>22</v>
       </c>
       <c r="G425">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H425">
         <v>80</v>
@@ -19911,7 +19913,7 @@
         <v>25</v>
       </c>
       <c r="G426">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H426">
         <v>23</v>
@@ -19943,7 +19945,7 @@
         <v>11</v>
       </c>
       <c r="G427">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H427">
         <v>100</v>
@@ -19975,7 +19977,7 @@
         <v>16</v>
       </c>
       <c r="G428">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H428">
         <v>67</v>
@@ -20007,7 +20009,7 @@
         <v>19</v>
       </c>
       <c r="G429">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H429">
         <v>33</v>
@@ -20039,7 +20041,7 @@
         <v>22</v>
       </c>
       <c r="G430">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H430">
         <v>58</v>
@@ -20071,7 +20073,7 @@
         <v>25</v>
       </c>
       <c r="G431">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H431">
         <v>41</v>
@@ -20103,7 +20105,7 @@
         <v>11</v>
       </c>
       <c r="G432">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H432">
         <v>52</v>
@@ -20135,7 +20137,7 @@
         <v>16</v>
       </c>
       <c r="G433">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H433">
         <v>100</v>
@@ -20167,7 +20169,7 @@
         <v>19</v>
       </c>
       <c r="G434">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H434">
         <v>55</v>
@@ -20199,7 +20201,7 @@
         <v>22</v>
       </c>
       <c r="G435">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H435">
         <v>40</v>
@@ -20231,7 +20233,7 @@
         <v>25</v>
       </c>
       <c r="G436">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H436">
         <v>38</v>
@@ -20263,7 +20265,7 @@
         <v>11</v>
       </c>
       <c r="G437">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H437">
         <v>64</v>
@@ -20295,7 +20297,7 @@
         <v>16</v>
       </c>
       <c r="G438">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H438">
         <v>46</v>
@@ -20327,7 +20329,7 @@
         <v>19</v>
       </c>
       <c r="G439">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H439">
         <v>68</v>
@@ -20359,7 +20361,7 @@
         <v>22</v>
       </c>
       <c r="G440">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H440">
         <v>67</v>
@@ -20391,7 +20393,7 @@
         <v>25</v>
       </c>
       <c r="G441">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H441">
         <v>64</v>
@@ -20423,7 +20425,7 @@
         <v>11</v>
       </c>
       <c r="G442">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H442">
         <v>50</v>
@@ -20455,7 +20457,7 @@
         <v>16</v>
       </c>
       <c r="G443">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H443">
         <v>72</v>
@@ -20487,7 +20489,7 @@
         <v>19</v>
       </c>
       <c r="G444">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H444">
         <v>79</v>
@@ -20519,7 +20521,7 @@
         <v>22</v>
       </c>
       <c r="G445">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H445">
         <v>59</v>
@@ -20551,7 +20553,7 @@
         <v>25</v>
       </c>
       <c r="G446">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H446">
         <v>71</v>
@@ -20583,7 +20585,7 @@
         <v>11</v>
       </c>
       <c r="G447">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H447">
         <v>60</v>
@@ -20615,7 +20617,7 @@
         <v>16</v>
       </c>
       <c r="G448">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H448">
         <v>36</v>
@@ -20647,7 +20649,7 @@
         <v>19</v>
       </c>
       <c r="G449">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H449">
         <v>52</v>
@@ -20679,7 +20681,7 @@
         <v>22</v>
       </c>
       <c r="G450">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H450">
         <v>48</v>
@@ -20711,7 +20713,7 @@
         <v>25</v>
       </c>
       <c r="G451">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H451">
         <v>63</v>
@@ -20743,7 +20745,7 @@
         <v>11</v>
       </c>
       <c r="G452">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H452">
         <v>68</v>
@@ -20775,7 +20777,7 @@
         <v>16</v>
       </c>
       <c r="G453">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H453">
         <v>63</v>
@@ -20807,7 +20809,7 @@
         <v>19</v>
       </c>
       <c r="G454">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H454">
         <v>41</v>
@@ -20839,7 +20841,7 @@
         <v>22</v>
       </c>
       <c r="G455">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H455">
         <v>49</v>
@@ -20871,7 +20873,7 @@
         <v>25</v>
       </c>
       <c r="G456">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H456">
         <v>71</v>
@@ -20903,7 +20905,7 @@
         <v>11</v>
       </c>
       <c r="G457">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H457">
         <v>50</v>
@@ -20935,7 +20937,7 @@
         <v>16</v>
       </c>
       <c r="G458">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H458">
         <v>62</v>
@@ -20967,7 +20969,7 @@
         <v>19</v>
       </c>
       <c r="G459">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H459">
         <v>29</v>
@@ -20999,7 +21001,7 @@
         <v>22</v>
       </c>
       <c r="G460">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H460">
         <v>38</v>
@@ -21031,7 +21033,7 @@
         <v>25</v>
       </c>
       <c r="G461">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H461">
         <v>84</v>
@@ -21063,7 +21065,7 @@
         <v>11</v>
       </c>
       <c r="G462">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H462">
         <v>64</v>
@@ -21095,7 +21097,7 @@
         <v>16</v>
       </c>
       <c r="G463">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H463">
         <v>76</v>
@@ -21127,7 +21129,7 @@
         <v>19</v>
       </c>
       <c r="G464">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H464">
         <v>72</v>
@@ -21159,7 +21161,7 @@
         <v>22</v>
       </c>
       <c r="G465">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H465">
         <v>50</v>
@@ -21191,7 +21193,7 @@
         <v>25</v>
       </c>
       <c r="G466">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H466">
         <v>57</v>
@@ -21223,7 +21225,7 @@
         <v>11</v>
       </c>
       <c r="G467">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H467">
         <v>68</v>
@@ -21255,7 +21257,7 @@
         <v>16</v>
       </c>
       <c r="G468">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H468">
         <v>24</v>
@@ -21287,7 +21289,7 @@
         <v>19</v>
       </c>
       <c r="G469">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H469">
         <v>48</v>
@@ -21319,7 +21321,7 @@
         <v>22</v>
       </c>
       <c r="G470">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H470">
         <v>79</v>
@@ -21351,7 +21353,7 @@
         <v>25</v>
       </c>
       <c r="G471">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H471">
         <v>70</v>
@@ -21383,7 +21385,7 @@
         <v>11</v>
       </c>
       <c r="G472">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H472">
         <v>27</v>
@@ -21415,7 +21417,7 @@
         <v>16</v>
       </c>
       <c r="G473">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H473">
         <v>76</v>
@@ -21447,7 +21449,7 @@
         <v>19</v>
       </c>
       <c r="G474">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H474">
         <v>65</v>
@@ -21479,7 +21481,7 @@
         <v>22</v>
       </c>
       <c r="G475">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H475">
         <v>60</v>
@@ -21511,7 +21513,7 @@
         <v>25</v>
       </c>
       <c r="G476">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H476">
         <v>87</v>
@@ -21543,7 +21545,7 @@
         <v>11</v>
       </c>
       <c r="G477">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H477">
         <v>43</v>
@@ -21575,7 +21577,7 @@
         <v>16</v>
       </c>
       <c r="G478">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H478">
         <v>66</v>
@@ -21607,7 +21609,7 @@
         <v>19</v>
       </c>
       <c r="G479">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H479">
         <v>89</v>
@@ -21639,7 +21641,7 @@
         <v>22</v>
       </c>
       <c r="G480">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H480">
         <v>62</v>
@@ -21671,7 +21673,7 @@
         <v>25</v>
       </c>
       <c r="G481">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H481">
         <v>37</v>
@@ -21703,7 +21705,7 @@
         <v>11</v>
       </c>
       <c r="G482">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H482">
         <v>70</v>
@@ -21735,7 +21737,7 @@
         <v>16</v>
       </c>
       <c r="G483">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H483">
         <v>40</v>
@@ -21767,7 +21769,7 @@
         <v>19</v>
       </c>
       <c r="G484">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H484">
         <v>46</v>
@@ -21799,7 +21801,7 @@
         <v>22</v>
       </c>
       <c r="G485">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H485">
         <v>82</v>
@@ -21831,7 +21833,7 @@
         <v>25</v>
       </c>
       <c r="G486">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H486">
         <v>91</v>
@@ -21863,7 +21865,7 @@
         <v>11</v>
       </c>
       <c r="G487">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H487">
         <v>69</v>
@@ -21895,7 +21897,7 @@
         <v>16</v>
       </c>
       <c r="G488">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H488">
         <v>53</v>
@@ -21927,7 +21929,7 @@
         <v>19</v>
       </c>
       <c r="G489">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H489">
         <v>84</v>
@@ -21959,7 +21961,7 @@
         <v>22</v>
       </c>
       <c r="G490">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H490">
         <v>54</v>
@@ -21991,7 +21993,7 @@
         <v>25</v>
       </c>
       <c r="G491">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H491">
         <v>38</v>
@@ -22023,7 +22025,7 @@
         <v>11</v>
       </c>
       <c r="G492">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H492">
         <v>51</v>
@@ -22055,7 +22057,7 @@
         <v>16</v>
       </c>
       <c r="G493">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H493">
         <v>75</v>
@@ -22087,7 +22089,7 @@
         <v>19</v>
       </c>
       <c r="G494">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H494">
         <v>54</v>
@@ -22119,7 +22121,7 @@
         <v>22</v>
       </c>
       <c r="G495">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H495">
         <v>62</v>
@@ -22151,7 +22153,7 @@
         <v>25</v>
       </c>
       <c r="G496">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H496">
         <v>55</v>
@@ -22183,7 +22185,7 @@
         <v>11</v>
       </c>
       <c r="G497">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H497">
         <v>61</v>
@@ -22215,7 +22217,7 @@
         <v>16</v>
       </c>
       <c r="G498">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H498">
         <v>42</v>
@@ -22247,7 +22249,7 @@
         <v>19</v>
       </c>
       <c r="G499">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H499">
         <v>65</v>
@@ -22279,7 +22281,7 @@
         <v>22</v>
       </c>
       <c r="G500">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H500">
         <v>60</v>
@@ -22311,7 +22313,7 @@
         <v>25</v>
       </c>
       <c r="G501">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H501">
         <v>44</v>
@@ -22343,7 +22345,7 @@
         <v>11</v>
       </c>
       <c r="G502">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H502">
         <v>61</v>
@@ -22375,7 +22377,7 @@
         <v>16</v>
       </c>
       <c r="G503">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H503">
         <v>97</v>
@@ -22407,7 +22409,7 @@
         <v>19</v>
       </c>
       <c r="G504">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H504">
         <v>84</v>
@@ -22439,7 +22441,7 @@
         <v>22</v>
       </c>
       <c r="G505">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H505">
         <v>59</v>
@@ -22471,7 +22473,7 @@
         <v>25</v>
       </c>
       <c r="G506">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H506">
         <v>25</v>
@@ -22503,7 +22505,7 @@
         <v>11</v>
       </c>
       <c r="G507">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H507">
         <v>24</v>
@@ -22535,7 +22537,7 @@
         <v>16</v>
       </c>
       <c r="G508">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H508">
         <v>46</v>
@@ -22567,7 +22569,7 @@
         <v>19</v>
       </c>
       <c r="G509">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H509">
         <v>19</v>
@@ -22599,7 +22601,7 @@
         <v>22</v>
       </c>
       <c r="G510">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H510">
         <v>51</v>
@@ -22631,7 +22633,7 @@
         <v>25</v>
       </c>
       <c r="G511">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H511">
         <v>30</v>
@@ -22663,7 +22665,7 @@
         <v>11</v>
       </c>
       <c r="G512">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H512">
         <v>67</v>
@@ -22695,7 +22697,7 @@
         <v>16</v>
       </c>
       <c r="G513">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H513">
         <v>35</v>
@@ -22727,7 +22729,7 @@
         <v>19</v>
       </c>
       <c r="G514">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H514">
         <v>40</v>
@@ -22759,7 +22761,7 @@
         <v>22</v>
       </c>
       <c r="G515">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H515">
         <v>76</v>
@@ -22791,7 +22793,7 @@
         <v>25</v>
       </c>
       <c r="G516">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H516">
         <v>55</v>
@@ -22823,7 +22825,7 @@
         <v>11</v>
       </c>
       <c r="G517">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H517">
         <v>47</v>
@@ -22855,7 +22857,7 @@
         <v>16</v>
       </c>
       <c r="G518">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H518">
         <v>18</v>
@@ -22887,7 +22889,7 @@
         <v>19</v>
       </c>
       <c r="G519">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H519">
         <v>94</v>
@@ -22919,7 +22921,7 @@
         <v>22</v>
       </c>
       <c r="G520">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H520">
         <v>77</v>
@@ -22951,7 +22953,7 @@
         <v>25</v>
       </c>
       <c r="G521">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H521">
         <v>68</v>
@@ -22983,7 +22985,7 @@
         <v>11</v>
       </c>
       <c r="G522">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H522">
         <v>41</v>
@@ -23015,7 +23017,7 @@
         <v>16</v>
       </c>
       <c r="G523">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H523">
         <v>54</v>
@@ -23047,7 +23049,7 @@
         <v>19</v>
       </c>
       <c r="G524">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H524">
         <v>38</v>
@@ -23079,7 +23081,7 @@
         <v>22</v>
       </c>
       <c r="G525">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H525">
         <v>43</v>
@@ -23111,7 +23113,7 @@
         <v>25</v>
       </c>
       <c r="G526">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H526">
         <v>55</v>
@@ -23143,7 +23145,7 @@
         <v>11</v>
       </c>
       <c r="G527">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H527">
         <v>80</v>
@@ -23175,7 +23177,7 @@
         <v>16</v>
       </c>
       <c r="G528">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H528">
         <v>58</v>
@@ -23207,7 +23209,7 @@
         <v>19</v>
       </c>
       <c r="G529">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H529">
         <v>40</v>
@@ -23239,7 +23241,7 @@
         <v>22</v>
       </c>
       <c r="G530">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H530">
         <v>62</v>
@@ -23271,7 +23273,7 @@
         <v>25</v>
       </c>
       <c r="G531">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H531">
         <v>100</v>
@@ -23303,7 +23305,7 @@
         <v>11</v>
       </c>
       <c r="G532">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H532">
         <v>44</v>
@@ -23335,7 +23337,7 @@
         <v>16</v>
       </c>
       <c r="G533">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H533">
         <v>73</v>
@@ -23367,7 +23369,7 @@
         <v>19</v>
       </c>
       <c r="G534">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H534">
         <v>31</v>
@@ -23399,7 +23401,7 @@
         <v>22</v>
       </c>
       <c r="G535">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H535">
         <v>64</v>
@@ -23431,7 +23433,7 @@
         <v>25</v>
       </c>
       <c r="G536">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H536">
         <v>47</v>
@@ -23463,7 +23465,7 @@
         <v>11</v>
       </c>
       <c r="G537">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H537">
         <v>49</v>
@@ -23495,7 +23497,7 @@
         <v>16</v>
       </c>
       <c r="G538">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H538">
         <v>51</v>
@@ -23527,7 +23529,7 @@
         <v>19</v>
       </c>
       <c r="G539">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H539">
         <v>59</v>
@@ -23559,7 +23561,7 @@
         <v>22</v>
       </c>
       <c r="G540">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H540">
         <v>60</v>
@@ -23591,7 +23593,7 @@
         <v>25</v>
       </c>
       <c r="G541">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H541">
         <v>70</v>
@@ -23623,7 +23625,7 @@
         <v>11</v>
       </c>
       <c r="G542">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H542">
         <v>30</v>
@@ -23655,7 +23657,7 @@
         <v>16</v>
       </c>
       <c r="G543">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H543">
         <v>87</v>
@@ -23687,7 +23689,7 @@
         <v>19</v>
       </c>
       <c r="G544">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H544">
         <v>50</v>
@@ -23719,7 +23721,7 @@
         <v>22</v>
       </c>
       <c r="G545">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H545">
         <v>71</v>
@@ -23751,7 +23753,7 @@
         <v>25</v>
       </c>
       <c r="G546">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H546">
         <v>100</v>
@@ -23783,7 +23785,7 @@
         <v>11</v>
       </c>
       <c r="G547">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H547">
         <v>35</v>
@@ -23815,7 +23817,7 @@
         <v>16</v>
       </c>
       <c r="G548">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H548">
         <v>54</v>
@@ -23847,7 +23849,7 @@
         <v>19</v>
       </c>
       <c r="G549">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H549">
         <v>83</v>
@@ -23879,7 +23881,7 @@
         <v>22</v>
       </c>
       <c r="G550">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H550">
         <v>59</v>
@@ -23911,7 +23913,7 @@
         <v>25</v>
       </c>
       <c r="G551">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H551">
         <v>90</v>
@@ -23943,7 +23945,7 @@
         <v>11</v>
       </c>
       <c r="G552">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H552">
         <v>64</v>
@@ -23975,7 +23977,7 @@
         <v>16</v>
       </c>
       <c r="G553">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H553">
         <v>81</v>
@@ -24007,7 +24009,7 @@
         <v>19</v>
       </c>
       <c r="G554">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H554">
         <v>90</v>
@@ -24039,7 +24041,7 @@
         <v>22</v>
       </c>
       <c r="G555">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H555">
         <v>37</v>
@@ -24071,7 +24073,7 @@
         <v>25</v>
       </c>
       <c r="G556">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H556">
         <v>83</v>
@@ -24103,7 +24105,7 @@
         <v>11</v>
       </c>
       <c r="G557">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H557">
         <v>36</v>
@@ -24135,7 +24137,7 @@
         <v>16</v>
       </c>
       <c r="G558">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H558">
         <v>29</v>
@@ -24167,7 +24169,7 @@
         <v>19</v>
       </c>
       <c r="G559">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H559">
         <v>41</v>
@@ -24199,7 +24201,7 @@
         <v>22</v>
       </c>
       <c r="G560">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H560">
         <v>84</v>
@@ -24231,7 +24233,7 @@
         <v>25</v>
       </c>
       <c r="G561">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H561">
         <v>78</v>
@@ -24263,7 +24265,7 @@
         <v>11</v>
       </c>
       <c r="G562">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H562">
         <v>38</v>
@@ -24295,7 +24297,7 @@
         <v>16</v>
       </c>
       <c r="G563">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H563">
         <v>92</v>
@@ -24327,7 +24329,7 @@
         <v>19</v>
       </c>
       <c r="G564">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H564">
         <v>36</v>
@@ -24359,7 +24361,7 @@
         <v>22</v>
       </c>
       <c r="G565">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H565">
         <v>63</v>
@@ -24391,7 +24393,7 @@
         <v>25</v>
       </c>
       <c r="G566">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H566">
         <v>60</v>
@@ -24423,7 +24425,7 @@
         <v>11</v>
       </c>
       <c r="G567">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H567">
         <v>79</v>
@@ -24455,7 +24457,7 @@
         <v>16</v>
       </c>
       <c r="G568">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H568">
         <v>31</v>
@@ -24487,7 +24489,7 @@
         <v>19</v>
       </c>
       <c r="G569">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H569">
         <v>60</v>
@@ -24519,7 +24521,7 @@
         <v>22</v>
       </c>
       <c r="G570">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H570">
         <v>62</v>
@@ -24551,7 +24553,7 @@
         <v>25</v>
       </c>
       <c r="G571">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H571">
         <v>49</v>
@@ -24583,7 +24585,7 @@
         <v>11</v>
       </c>
       <c r="G572">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H572">
         <v>49</v>
@@ -24615,7 +24617,7 @@
         <v>16</v>
       </c>
       <c r="G573">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H573">
         <v>27</v>
@@ -24647,7 +24649,7 @@
         <v>19</v>
       </c>
       <c r="G574">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H574">
         <v>33</v>
@@ -24679,7 +24681,7 @@
         <v>22</v>
       </c>
       <c r="G575">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H575">
         <v>35</v>
@@ -24711,7 +24713,7 @@
         <v>25</v>
       </c>
       <c r="G576">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H576">
         <v>55</v>
@@ -24743,7 +24745,7 @@
         <v>11</v>
       </c>
       <c r="G577">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H577">
         <v>73</v>
@@ -24775,7 +24777,7 @@
         <v>16</v>
       </c>
       <c r="G578">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H578">
         <v>72</v>
@@ -24807,7 +24809,7 @@
         <v>19</v>
       </c>
       <c r="G579">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H579">
         <v>55</v>
@@ -24839,7 +24841,7 @@
         <v>22</v>
       </c>
       <c r="G580">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H580">
         <v>67</v>
@@ -24871,7 +24873,7 @@
         <v>25</v>
       </c>
       <c r="G581">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H581">
         <v>83</v>
@@ -24903,7 +24905,7 @@
         <v>11</v>
       </c>
       <c r="G582">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H582">
         <v>37</v>
@@ -24935,7 +24937,7 @@
         <v>16</v>
       </c>
       <c r="G583">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H583">
         <v>58</v>
@@ -24967,7 +24969,7 @@
         <v>19</v>
       </c>
       <c r="G584">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H584">
         <v>59</v>
@@ -24999,7 +25001,7 @@
         <v>22</v>
       </c>
       <c r="G585">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H585">
         <v>58</v>
@@ -25031,7 +25033,7 @@
         <v>25</v>
       </c>
       <c r="G586">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H586">
         <v>71</v>
@@ -25063,7 +25065,7 @@
         <v>11</v>
       </c>
       <c r="G587">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H587">
         <v>68</v>
@@ -25095,7 +25097,7 @@
         <v>16</v>
       </c>
       <c r="G588">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H588">
         <v>45</v>
@@ -25127,7 +25129,7 @@
         <v>19</v>
       </c>
       <c r="G589">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H589">
         <v>78</v>
@@ -25159,7 +25161,7 @@
         <v>22</v>
       </c>
       <c r="G590">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H590">
         <v>76</v>
@@ -25191,7 +25193,7 @@
         <v>25</v>
       </c>
       <c r="G591">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H591">
         <v>35</v>
@@ -25223,7 +25225,7 @@
         <v>11</v>
       </c>
       <c r="G592">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H592">
         <v>57</v>
@@ -25255,7 +25257,7 @@
         <v>16</v>
       </c>
       <c r="G593">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H593">
         <v>52</v>
@@ -25287,7 +25289,7 @@
         <v>19</v>
       </c>
       <c r="G594">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H594">
         <v>27</v>
@@ -25319,7 +25321,7 @@
         <v>22</v>
       </c>
       <c r="G595">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H595">
         <v>58</v>
@@ -25351,7 +25353,7 @@
         <v>25</v>
       </c>
       <c r="G596">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H596">
         <v>85</v>
@@ -25383,7 +25385,7 @@
         <v>11</v>
       </c>
       <c r="G597">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H597">
         <v>38</v>
@@ -25415,7 +25417,7 @@
         <v>16</v>
       </c>
       <c r="G598">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H598">
         <v>21</v>
@@ -25447,7 +25449,7 @@
         <v>19</v>
       </c>
       <c r="G599">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H599">
         <v>64</v>
@@ -25479,7 +25481,7 @@
         <v>22</v>
       </c>
       <c r="G600">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H600">
         <v>28</v>
@@ -25511,7 +25513,7 @@
         <v>25</v>
       </c>
       <c r="G601">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H601">
         <v>42</v>
@@ -25543,7 +25545,7 @@
         <v>11</v>
       </c>
       <c r="G602">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H602">
         <v>97</v>
@@ -25575,7 +25577,7 @@
         <v>16</v>
       </c>
       <c r="G603">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H603">
         <v>78</v>
@@ -25607,7 +25609,7 @@
         <v>19</v>
       </c>
       <c r="G604">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H604">
         <v>33</v>
@@ -25639,7 +25641,7 @@
         <v>22</v>
       </c>
       <c r="G605">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H605">
         <v>31</v>
@@ -25671,7 +25673,7 @@
         <v>25</v>
       </c>
       <c r="G606">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H606">
         <v>89</v>
@@ -25703,7 +25705,7 @@
         <v>11</v>
       </c>
       <c r="G607">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H607">
         <v>73</v>
@@ -25735,7 +25737,7 @@
         <v>16</v>
       </c>
       <c r="G608">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H608">
         <v>74</v>
@@ -25767,7 +25769,7 @@
         <v>19</v>
       </c>
       <c r="G609">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H609">
         <v>39</v>
@@ -25799,7 +25801,7 @@
         <v>22</v>
       </c>
       <c r="G610">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H610">
         <v>61</v>
@@ -25831,7 +25833,7 @@
         <v>25</v>
       </c>
       <c r="G611">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H611">
         <v>87</v>
@@ -25863,7 +25865,7 @@
         <v>11</v>
       </c>
       <c r="G612">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H612">
         <v>48</v>
@@ -25895,7 +25897,7 @@
         <v>16</v>
       </c>
       <c r="G613">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H613">
         <v>45</v>
@@ -25927,7 +25929,7 @@
         <v>19</v>
       </c>
       <c r="G614">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H614">
         <v>47</v>
@@ -25959,7 +25961,7 @@
         <v>22</v>
       </c>
       <c r="G615">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H615">
         <v>34</v>
@@ -25991,7 +25993,7 @@
         <v>25</v>
       </c>
       <c r="G616">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H616">
         <v>46</v>
@@ -26023,7 +26025,7 @@
         <v>11</v>
       </c>
       <c r="G617">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H617">
         <v>68</v>
@@ -26055,7 +26057,7 @@
         <v>16</v>
       </c>
       <c r="G618">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H618">
         <v>49</v>
@@ -26087,7 +26089,7 @@
         <v>19</v>
       </c>
       <c r="G619">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H619">
         <v>67</v>
@@ -26119,7 +26121,7 @@
         <v>22</v>
       </c>
       <c r="G620">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H620">
         <v>60</v>
@@ -26151,7 +26153,7 @@
         <v>25</v>
       </c>
       <c r="G621">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H621">
         <v>95</v>
@@ -26183,7 +26185,7 @@
         <v>11</v>
       </c>
       <c r="G622">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H622">
         <v>92</v>
@@ -26215,7 +26217,7 @@
         <v>16</v>
       </c>
       <c r="G623">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H623">
         <v>48</v>
@@ -26247,7 +26249,7 @@
         <v>19</v>
       </c>
       <c r="G624">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H624">
         <v>40</v>
@@ -26279,7 +26281,7 @@
         <v>22</v>
       </c>
       <c r="G625">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H625">
         <v>75</v>
@@ -26311,7 +26313,7 @@
         <v>25</v>
       </c>
       <c r="G626">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H626">
         <v>59</v>
@@ -26343,7 +26345,7 @@
         <v>11</v>
       </c>
       <c r="G627">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H627">
         <v>42</v>
@@ -26375,7 +26377,7 @@
         <v>16</v>
       </c>
       <c r="G628">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H628">
         <v>49</v>
@@ -26407,7 +26409,7 @@
         <v>19</v>
       </c>
       <c r="G629">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H629">
         <v>40</v>
@@ -26439,7 +26441,7 @@
         <v>22</v>
       </c>
       <c r="G630">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H630">
         <v>45</v>
@@ -26471,7 +26473,7 @@
         <v>25</v>
       </c>
       <c r="G631">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H631">
         <v>91</v>
@@ -26503,7 +26505,7 @@
         <v>11</v>
       </c>
       <c r="G632">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H632">
         <v>50</v>
@@ -26535,7 +26537,7 @@
         <v>16</v>
       </c>
       <c r="G633">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H633">
         <v>69</v>
@@ -26567,7 +26569,7 @@
         <v>19</v>
       </c>
       <c r="G634">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H634">
         <v>70</v>
@@ -26599,7 +26601,7 @@
         <v>22</v>
       </c>
       <c r="G635">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H635">
         <v>71</v>
@@ -26631,7 +26633,7 @@
         <v>25</v>
       </c>
       <c r="G636">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H636">
         <v>35</v>
@@ -26663,7 +26665,7 @@
         <v>11</v>
       </c>
       <c r="G637">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H637">
         <v>41</v>
@@ -26695,7 +26697,7 @@
         <v>16</v>
       </c>
       <c r="G638">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H638">
         <v>75</v>
@@ -26727,7 +26729,7 @@
         <v>19</v>
       </c>
       <c r="G639">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H639">
         <v>100</v>
@@ -26759,7 +26761,7 @@
         <v>22</v>
       </c>
       <c r="G640">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H640">
         <v>100</v>
@@ -26791,7 +26793,7 @@
         <v>25</v>
       </c>
       <c r="G641">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H641">
         <v>29</v>
@@ -26823,7 +26825,7 @@
         <v>11</v>
       </c>
       <c r="G642">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H642">
         <v>58</v>
@@ -26855,7 +26857,7 @@
         <v>16</v>
       </c>
       <c r="G643">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H643">
         <v>75</v>
@@ -26887,7 +26889,7 @@
         <v>19</v>
       </c>
       <c r="G644">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H644">
         <v>48</v>
@@ -26919,7 +26921,7 @@
         <v>22</v>
       </c>
       <c r="G645">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H645">
         <v>87</v>
@@ -26951,7 +26953,7 @@
         <v>25</v>
       </c>
       <c r="G646">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H646">
         <v>90</v>
@@ -26983,7 +26985,7 @@
         <v>11</v>
       </c>
       <c r="G647">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H647">
         <v>53</v>
@@ -27015,7 +27017,7 @@
         <v>16</v>
       </c>
       <c r="G648">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H648">
         <v>100</v>
@@ -27047,7 +27049,7 @@
         <v>19</v>
       </c>
       <c r="G649">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H649">
         <v>75</v>
@@ -27079,7 +27081,7 @@
         <v>22</v>
       </c>
       <c r="G650">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H650">
         <v>54</v>
@@ -27111,7 +27113,7 @@
         <v>25</v>
       </c>
       <c r="G651">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H651">
         <v>83</v>
@@ -27143,7 +27145,7 @@
         <v>11</v>
       </c>
       <c r="G652">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H652">
         <v>94</v>
@@ -27175,7 +27177,7 @@
         <v>16</v>
       </c>
       <c r="G653">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H653">
         <v>71</v>
@@ -27207,7 +27209,7 @@
         <v>19</v>
       </c>
       <c r="G654">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H654">
         <v>8</v>
@@ -27239,7 +27241,7 @@
         <v>22</v>
       </c>
       <c r="G655">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H655">
         <v>48</v>
@@ -27271,7 +27273,7 @@
         <v>25</v>
       </c>
       <c r="G656">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H656">
         <v>27</v>
@@ -27303,7 +27305,7 @@
         <v>11</v>
       </c>
       <c r="G657">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H657">
         <v>76</v>
@@ -27335,7 +27337,7 @@
         <v>16</v>
       </c>
       <c r="G658">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H658">
         <v>54</v>
@@ -27367,7 +27369,7 @@
         <v>19</v>
       </c>
       <c r="G659">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H659">
         <v>52</v>
@@ -27399,7 +27401,7 @@
         <v>22</v>
       </c>
       <c r="G660">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H660">
         <v>63</v>
@@ -27431,7 +27433,7 @@
         <v>25</v>
       </c>
       <c r="G661">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H661">
         <v>41</v>
@@ -27463,7 +27465,7 @@
         <v>11</v>
       </c>
       <c r="G662">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H662">
         <v>43</v>
@@ -27495,7 +27497,7 @@
         <v>16</v>
       </c>
       <c r="G663">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H663">
         <v>73</v>
@@ -27527,7 +27529,7 @@
         <v>19</v>
       </c>
       <c r="G664">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H664">
         <v>32</v>
@@ -27559,7 +27561,7 @@
         <v>22</v>
       </c>
       <c r="G665">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H665">
         <v>47</v>
@@ -27591,7 +27593,7 @@
         <v>25</v>
       </c>
       <c r="G666">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H666">
         <v>60</v>
@@ -27623,7 +27625,7 @@
         <v>11</v>
       </c>
       <c r="G667">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H667">
         <v>73</v>
@@ -27655,7 +27657,7 @@
         <v>16</v>
       </c>
       <c r="G668">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H668">
         <v>78</v>
@@ -27687,7 +27689,7 @@
         <v>19</v>
       </c>
       <c r="G669">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H669">
         <v>48</v>
@@ -27719,7 +27721,7 @@
         <v>22</v>
       </c>
       <c r="G670">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H670">
         <v>33</v>
@@ -27751,7 +27753,7 @@
         <v>25</v>
       </c>
       <c r="G671">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H671">
         <v>64</v>
@@ -27783,7 +27785,7 @@
         <v>11</v>
       </c>
       <c r="G672">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H672">
         <v>59</v>
@@ -27815,7 +27817,7 @@
         <v>16</v>
       </c>
       <c r="G673">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H673">
         <v>68</v>
@@ -27847,7 +27849,7 @@
         <v>19</v>
       </c>
       <c r="G674">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H674">
         <v>64</v>
@@ -27879,7 +27881,7 @@
         <v>22</v>
       </c>
       <c r="G675">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H675">
         <v>52</v>
@@ -27911,7 +27913,7 @@
         <v>25</v>
       </c>
       <c r="G676">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H676">
         <v>51</v>
@@ -27943,7 +27945,7 @@
         <v>11</v>
       </c>
       <c r="G677">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H677">
         <v>67</v>
@@ -27975,7 +27977,7 @@
         <v>16</v>
       </c>
       <c r="G678">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H678">
         <v>54</v>
@@ -28007,7 +28009,7 @@
         <v>19</v>
       </c>
       <c r="G679">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H679">
         <v>35</v>
@@ -28039,7 +28041,7 @@
         <v>22</v>
       </c>
       <c r="G680">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H680">
         <v>41</v>
@@ -28071,7 +28073,7 @@
         <v>25</v>
       </c>
       <c r="G681">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H681">
         <v>80</v>
@@ -28103,7 +28105,7 @@
         <v>11</v>
       </c>
       <c r="G682">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H682">
         <v>48</v>
@@ -28135,7 +28137,7 @@
         <v>16</v>
       </c>
       <c r="G683">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H683">
         <v>79</v>
@@ -28167,7 +28169,7 @@
         <v>19</v>
       </c>
       <c r="G684">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H684">
         <v>64</v>
@@ -28199,7 +28201,7 @@
         <v>22</v>
       </c>
       <c r="G685">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H685">
         <v>56</v>
@@ -28231,7 +28233,7 @@
         <v>25</v>
       </c>
       <c r="G686">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H686">
         <v>57</v>
@@ -28263,7 +28265,7 @@
         <v>11</v>
       </c>
       <c r="G687">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H687">
         <v>45</v>
@@ -28295,7 +28297,7 @@
         <v>16</v>
       </c>
       <c r="G688">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H688">
         <v>61</v>
@@ -28327,7 +28329,7 @@
         <v>19</v>
       </c>
       <c r="G689">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H689">
         <v>60</v>
@@ -28359,7 +28361,7 @@
         <v>22</v>
       </c>
       <c r="G690">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H690">
         <v>34</v>
@@ -28391,7 +28393,7 @@
         <v>25</v>
       </c>
       <c r="G691">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H691">
         <v>60</v>
@@ -28423,7 +28425,7 @@
         <v>11</v>
       </c>
       <c r="G692">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H692">
         <v>59</v>
@@ -28455,7 +28457,7 @@
         <v>16</v>
       </c>
       <c r="G693">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H693">
         <v>68</v>
@@ -28487,7 +28489,7 @@
         <v>19</v>
       </c>
       <c r="G694">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H694">
         <v>72</v>
@@ -28519,7 +28521,7 @@
         <v>22</v>
       </c>
       <c r="G695">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H695">
         <v>98</v>
@@ -28551,7 +28553,7 @@
         <v>25</v>
       </c>
       <c r="G696">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H696">
         <v>76</v>
@@ -28583,7 +28585,7 @@
         <v>11</v>
       </c>
       <c r="G697">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H697">
         <v>53</v>
@@ -28615,7 +28617,7 @@
         <v>16</v>
       </c>
       <c r="G698">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H698">
         <v>79</v>
@@ -28647,7 +28649,7 @@
         <v>19</v>
       </c>
       <c r="G699">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H699">
         <v>40</v>
@@ -28679,7 +28681,7 @@
         <v>22</v>
       </c>
       <c r="G700">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H700">
         <v>51</v>
@@ -28711,7 +28713,7 @@
         <v>25</v>
       </c>
       <c r="G701">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H701">
         <v>67</v>
@@ -28743,7 +28745,7 @@
         <v>11</v>
       </c>
       <c r="G702">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H702">
         <v>33</v>
@@ -28775,7 +28777,7 @@
         <v>16</v>
       </c>
       <c r="G703">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H703">
         <v>19</v>
@@ -28807,7 +28809,7 @@
         <v>19</v>
       </c>
       <c r="G704">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H704">
         <v>69</v>
@@ -28839,7 +28841,7 @@
         <v>22</v>
       </c>
       <c r="G705">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H705">
         <v>74</v>
@@ -28871,7 +28873,7 @@
         <v>25</v>
       </c>
       <c r="G706">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H706">
         <v>70</v>
@@ -28903,7 +28905,7 @@
         <v>11</v>
       </c>
       <c r="G707">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H707">
         <v>57</v>
@@ -28935,7 +28937,7 @@
         <v>16</v>
       </c>
       <c r="G708">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H708">
         <v>73</v>
@@ -28967,7 +28969,7 @@
         <v>19</v>
       </c>
       <c r="G709">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H709">
         <v>85</v>
@@ -28999,7 +29001,7 @@
         <v>22</v>
       </c>
       <c r="G710">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H710">
         <v>63</v>
@@ -29031,7 +29033,7 @@
         <v>25</v>
       </c>
       <c r="G711">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H711">
         <v>52</v>
@@ -29063,7 +29065,7 @@
         <v>11</v>
       </c>
       <c r="G712">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H712">
         <v>47</v>
@@ -29095,7 +29097,7 @@
         <v>16</v>
       </c>
       <c r="G713">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H713">
         <v>48</v>
@@ -29127,7 +29129,7 @@
         <v>19</v>
       </c>
       <c r="G714">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H714">
         <v>62</v>
@@ -29159,7 +29161,7 @@
         <v>22</v>
       </c>
       <c r="G715">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H715">
         <v>66</v>
@@ -29191,7 +29193,7 @@
         <v>25</v>
       </c>
       <c r="G716">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H716">
         <v>56</v>
@@ -29223,7 +29225,7 @@
         <v>11</v>
       </c>
       <c r="G717">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H717">
         <v>52</v>
@@ -29255,7 +29257,7 @@
         <v>16</v>
       </c>
       <c r="G718">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H718">
         <v>76</v>
@@ -29287,7 +29289,7 @@
         <v>19</v>
       </c>
       <c r="G719">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H719">
         <v>80</v>
@@ -29319,7 +29321,7 @@
         <v>22</v>
       </c>
       <c r="G720">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H720">
         <v>42</v>
@@ -29351,7 +29353,7 @@
         <v>25</v>
       </c>
       <c r="G721">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H721">
         <v>43</v>
@@ -29383,7 +29385,7 @@
         <v>11</v>
       </c>
       <c r="G722">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H722">
         <v>54</v>
@@ -29415,7 +29417,7 @@
         <v>16</v>
       </c>
       <c r="G723">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H723">
         <v>32</v>
@@ -29447,7 +29449,7 @@
         <v>19</v>
       </c>
       <c r="G724">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H724">
         <v>40</v>
@@ -29479,7 +29481,7 @@
         <v>22</v>
       </c>
       <c r="G725">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H725">
         <v>66</v>
@@ -29511,7 +29513,7 @@
         <v>25</v>
       </c>
       <c r="G726">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H726">
         <v>59</v>
@@ -29543,7 +29545,7 @@
         <v>11</v>
       </c>
       <c r="G727">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H727">
         <v>66</v>
@@ -29575,7 +29577,7 @@
         <v>16</v>
       </c>
       <c r="G728">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H728">
         <v>61</v>
@@ -29607,7 +29609,7 @@
         <v>19</v>
       </c>
       <c r="G729">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H729">
         <v>67</v>
@@ -29639,7 +29641,7 @@
         <v>22</v>
       </c>
       <c r="G730">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H730">
         <v>58</v>
@@ -29671,7 +29673,7 @@
         <v>25</v>
       </c>
       <c r="G731">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H731">
         <v>58</v>
@@ -29703,7 +29705,7 @@
         <v>11</v>
       </c>
       <c r="G732">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H732">
         <v>57</v>
@@ -29735,7 +29737,7 @@
         <v>16</v>
       </c>
       <c r="G733">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H733">
         <v>45</v>
@@ -29767,7 +29769,7 @@
         <v>19</v>
       </c>
       <c r="G734">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H734">
         <v>76</v>
@@ -29799,7 +29801,7 @@
         <v>22</v>
       </c>
       <c r="G735">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H735">
         <v>100</v>
@@ -29831,7 +29833,7 @@
         <v>25</v>
       </c>
       <c r="G736">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H736">
         <v>59</v>
@@ -29863,7 +29865,7 @@
         <v>11</v>
       </c>
       <c r="G737">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H737">
         <v>65</v>
@@ -29895,7 +29897,7 @@
         <v>16</v>
       </c>
       <c r="G738">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H738">
         <v>62</v>
@@ -29927,7 +29929,7 @@
         <v>19</v>
       </c>
       <c r="G739">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H739">
         <v>49</v>
@@ -29959,7 +29961,7 @@
         <v>22</v>
       </c>
       <c r="G740">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H740">
         <v>77</v>
@@ -29991,7 +29993,7 @@
         <v>25</v>
       </c>
       <c r="G741">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H741">
         <v>71</v>
@@ -30023,7 +30025,7 @@
         <v>11</v>
       </c>
       <c r="G742">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H742">
         <v>53</v>
@@ -30055,7 +30057,7 @@
         <v>16</v>
       </c>
       <c r="G743">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H743">
         <v>100</v>
@@ -30087,7 +30089,7 @@
         <v>19</v>
       </c>
       <c r="G744">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H744">
         <v>55</v>
@@ -30119,7 +30121,7 @@
         <v>22</v>
       </c>
       <c r="G745">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H745">
         <v>55</v>
@@ -30151,7 +30153,7 @@
         <v>25</v>
       </c>
       <c r="G746">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H746">
         <v>73</v>
@@ -30183,7 +30185,7 @@
         <v>11</v>
       </c>
       <c r="G747">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H747">
         <v>66</v>
@@ -30215,7 +30217,7 @@
         <v>16</v>
       </c>
       <c r="G748">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H748">
         <v>78</v>
@@ -30247,7 +30249,7 @@
         <v>19</v>
       </c>
       <c r="G749">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H749">
         <v>47</v>
@@ -30279,7 +30281,7 @@
         <v>22</v>
       </c>
       <c r="G750">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H750">
         <v>64</v>
@@ -30311,7 +30313,7 @@
         <v>25</v>
       </c>
       <c r="G751">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H751">
         <v>94</v>
@@ -30343,7 +30345,7 @@
         <v>11</v>
       </c>
       <c r="G752">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H752">
         <v>77</v>
@@ -30375,7 +30377,7 @@
         <v>16</v>
       </c>
       <c r="G753">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H753">
         <v>69</v>
@@ -30407,7 +30409,7 @@
         <v>19</v>
       </c>
       <c r="G754">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H754">
         <v>52</v>
@@ -30439,7 +30441,7 @@
         <v>22</v>
       </c>
       <c r="G755">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H755">
         <v>100</v>
@@ -30471,7 +30473,7 @@
         <v>25</v>
       </c>
       <c r="G756">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H756">
         <v>47</v>
@@ -30503,7 +30505,7 @@
         <v>11</v>
       </c>
       <c r="G757">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H757">
         <v>69</v>
@@ -30535,7 +30537,7 @@
         <v>16</v>
       </c>
       <c r="G758">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H758">
         <v>60</v>
@@ -30567,7 +30569,7 @@
         <v>19</v>
       </c>
       <c r="G759">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H759">
         <v>86</v>
@@ -30599,7 +30601,7 @@
         <v>22</v>
       </c>
       <c r="G760">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H760">
         <v>34</v>
@@ -30631,7 +30633,7 @@
         <v>25</v>
       </c>
       <c r="G761">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H761">
         <v>56</v>
@@ -30663,7 +30665,7 @@
         <v>11</v>
       </c>
       <c r="G762">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H762">
         <v>90</v>
@@ -30695,7 +30697,7 @@
         <v>16</v>
       </c>
       <c r="G763">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H763">
         <v>28</v>
@@ -30727,7 +30729,7 @@
         <v>19</v>
       </c>
       <c r="G764">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H764">
         <v>65</v>
@@ -30759,7 +30761,7 @@
         <v>22</v>
       </c>
       <c r="G765">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H765">
         <v>67</v>
@@ -30791,7 +30793,7 @@
         <v>25</v>
       </c>
       <c r="G766">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H766">
         <v>63</v>
@@ -30823,7 +30825,7 @@
         <v>11</v>
       </c>
       <c r="G767">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H767">
         <v>59</v>
@@ -30855,7 +30857,7 @@
         <v>16</v>
       </c>
       <c r="G768">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H768">
         <v>100</v>
@@ -30887,7 +30889,7 @@
         <v>19</v>
       </c>
       <c r="G769">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H769">
         <v>39</v>
@@ -30919,7 +30921,7 @@
         <v>22</v>
       </c>
       <c r="G770">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H770">
         <v>52</v>
@@ -30951,7 +30953,7 @@
         <v>25</v>
       </c>
       <c r="G771">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H771">
         <v>42</v>
@@ -30983,7 +30985,7 @@
         <v>11</v>
       </c>
       <c r="G772">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H772">
         <v>17</v>
@@ -31015,7 +31017,7 @@
         <v>16</v>
       </c>
       <c r="G773">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H773">
         <v>73</v>
@@ -31047,7 +31049,7 @@
         <v>19</v>
       </c>
       <c r="G774">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H774">
         <v>33</v>
@@ -31079,7 +31081,7 @@
         <v>22</v>
       </c>
       <c r="G775">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H775">
         <v>70</v>
@@ -31111,7 +31113,7 @@
         <v>25</v>
       </c>
       <c r="G776">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H776">
         <v>40</v>
@@ -31143,7 +31145,7 @@
         <v>11</v>
       </c>
       <c r="G777">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H777">
         <v>65</v>
@@ -31175,7 +31177,7 @@
         <v>16</v>
       </c>
       <c r="G778">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H778">
         <v>79</v>
@@ -31207,7 +31209,7 @@
         <v>19</v>
       </c>
       <c r="G779">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H779">
         <v>31</v>
@@ -31239,7 +31241,7 @@
         <v>22</v>
       </c>
       <c r="G780">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H780">
         <v>73</v>
@@ -31271,7 +31273,7 @@
         <v>25</v>
       </c>
       <c r="G781">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H781">
         <v>63</v>
@@ -31303,7 +31305,7 @@
         <v>11</v>
       </c>
       <c r="G782">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H782">
         <v>40</v>
@@ -31335,7 +31337,7 @@
         <v>16</v>
       </c>
       <c r="G783">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H783">
         <v>83</v>
@@ -31367,7 +31369,7 @@
         <v>19</v>
       </c>
       <c r="G784">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H784">
         <v>80</v>
@@ -31399,7 +31401,7 @@
         <v>22</v>
       </c>
       <c r="G785">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H785">
         <v>68</v>
@@ -31431,7 +31433,7 @@
         <v>25</v>
       </c>
       <c r="G786">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H786">
         <v>81</v>
@@ -31463,7 +31465,7 @@
         <v>11</v>
       </c>
       <c r="G787">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H787">
         <v>65</v>
@@ -31495,7 +31497,7 @@
         <v>16</v>
       </c>
       <c r="G788">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H788">
         <v>39</v>
@@ -31527,7 +31529,7 @@
         <v>19</v>
       </c>
       <c r="G789">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H789">
         <v>40</v>
@@ -31559,7 +31561,7 @@
         <v>22</v>
       </c>
       <c r="G790">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H790">
         <v>53</v>
@@ -31591,7 +31593,7 @@
         <v>25</v>
       </c>
       <c r="G791">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H791">
         <v>37</v>
@@ -31623,7 +31625,7 @@
         <v>11</v>
       </c>
       <c r="G792">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H792">
         <v>61</v>
@@ -31655,7 +31657,7 @@
         <v>16</v>
       </c>
       <c r="G793">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H793">
         <v>62</v>
@@ -31687,7 +31689,7 @@
         <v>19</v>
       </c>
       <c r="G794">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H794">
         <v>47</v>
@@ -31719,7 +31721,7 @@
         <v>22</v>
       </c>
       <c r="G795">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H795">
         <v>51</v>
@@ -31751,7 +31753,7 @@
         <v>25</v>
       </c>
       <c r="G796">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H796">
         <v>66</v>
@@ -31783,7 +31785,7 @@
         <v>11</v>
       </c>
       <c r="G797">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H797">
         <v>34</v>
@@ -31815,7 +31817,7 @@
         <v>16</v>
       </c>
       <c r="G798">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H798">
         <v>40</v>
@@ -31847,7 +31849,7 @@
         <v>19</v>
       </c>
       <c r="G799">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H799">
         <v>50</v>
@@ -31879,7 +31881,7 @@
         <v>22</v>
       </c>
       <c r="G800">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H800">
         <v>90</v>
@@ -31911,7 +31913,7 @@
         <v>25</v>
       </c>
       <c r="G801">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H801">
         <v>44</v>
@@ -31943,7 +31945,7 @@
         <v>11</v>
       </c>
       <c r="G802">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H802">
         <v>51</v>
@@ -31975,7 +31977,7 @@
         <v>16</v>
       </c>
       <c r="G803">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H803">
         <v>75</v>
@@ -32007,7 +32009,7 @@
         <v>19</v>
       </c>
       <c r="G804">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H804">
         <v>92</v>
@@ -32039,7 +32041,7 @@
         <v>22</v>
       </c>
       <c r="G805">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H805">
         <v>66</v>
@@ -32071,7 +32073,7 @@
         <v>25</v>
       </c>
       <c r="G806">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H806">
         <v>80</v>
@@ -32103,7 +32105,7 @@
         <v>11</v>
       </c>
       <c r="G807">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H807">
         <v>100</v>
@@ -32135,7 +32137,7 @@
         <v>16</v>
       </c>
       <c r="G808">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H808">
         <v>62</v>
@@ -32167,7 +32169,7 @@
         <v>19</v>
       </c>
       <c r="G809">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H809">
         <v>59</v>
@@ -32199,7 +32201,7 @@
         <v>22</v>
       </c>
       <c r="G810">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H810">
         <v>93</v>
@@ -32231,7 +32233,7 @@
         <v>25</v>
       </c>
       <c r="G811">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H811">
         <v>49</v>
@@ -32263,7 +32265,7 @@
         <v>11</v>
       </c>
       <c r="G812">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H812">
         <v>41</v>
@@ -32295,7 +32297,7 @@
         <v>16</v>
       </c>
       <c r="G813">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H813">
         <v>70</v>
@@ -32327,7 +32329,7 @@
         <v>19</v>
       </c>
       <c r="G814">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H814">
         <v>66</v>
@@ -32359,7 +32361,7 @@
         <v>22</v>
       </c>
       <c r="G815">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H815">
         <v>72</v>
@@ -32391,7 +32393,7 @@
         <v>25</v>
       </c>
       <c r="G816">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H816">
         <v>43</v>
@@ -32423,7 +32425,7 @@
         <v>11</v>
       </c>
       <c r="G817">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H817">
         <v>63</v>
@@ -32455,7 +32457,7 @@
         <v>16</v>
       </c>
       <c r="G818">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H818">
         <v>60</v>
@@ -32487,7 +32489,7 @@
         <v>19</v>
       </c>
       <c r="G819">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H819">
         <v>54</v>
@@ -32519,7 +32521,7 @@
         <v>22</v>
       </c>
       <c r="G820">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H820">
         <v>63</v>
@@ -32551,7 +32553,7 @@
         <v>25</v>
       </c>
       <c r="G821">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H821">
         <v>58</v>
@@ -32583,7 +32585,7 @@
         <v>11</v>
       </c>
       <c r="G822">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H822">
         <v>27</v>
@@ -32615,7 +32617,7 @@
         <v>16</v>
       </c>
       <c r="G823">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H823">
         <v>25</v>
@@ -32647,7 +32649,7 @@
         <v>19</v>
       </c>
       <c r="G824">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H824">
         <v>76</v>
@@ -32679,7 +32681,7 @@
         <v>22</v>
       </c>
       <c r="G825">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H825">
         <v>82</v>
@@ -32711,7 +32713,7 @@
         <v>25</v>
       </c>
       <c r="G826">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H826">
         <v>100</v>
@@ -32743,7 +32745,7 @@
         <v>11</v>
       </c>
       <c r="G827">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H827">
         <v>71</v>
@@ -32775,7 +32777,7 @@
         <v>16</v>
       </c>
       <c r="G828">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H828">
         <v>39</v>
@@ -32807,7 +32809,7 @@
         <v>19</v>
       </c>
       <c r="G829">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H829">
         <v>85</v>
@@ -32839,7 +32841,7 @@
         <v>22</v>
       </c>
       <c r="G830">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H830">
         <v>55</v>
@@ -32871,7 +32873,7 @@
         <v>25</v>
       </c>
       <c r="G831">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H831">
         <v>47</v>
@@ -32903,7 +32905,7 @@
         <v>11</v>
       </c>
       <c r="G832">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H832">
         <v>68</v>
@@ -32935,7 +32937,7 @@
         <v>16</v>
       </c>
       <c r="G833">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H833">
         <v>40</v>
@@ -32967,7 +32969,7 @@
         <v>19</v>
       </c>
       <c r="G834">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H834">
         <v>70</v>
@@ -32999,7 +33001,7 @@
         <v>22</v>
       </c>
       <c r="G835">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H835">
         <v>51</v>
@@ -33031,7 +33033,7 @@
         <v>25</v>
       </c>
       <c r="G836">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H836">
         <v>37</v>
@@ -33063,7 +33065,7 @@
         <v>11</v>
       </c>
       <c r="G837">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H837">
         <v>90</v>
@@ -33095,7 +33097,7 @@
         <v>16</v>
       </c>
       <c r="G838">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H838">
         <v>14</v>
@@ -33127,7 +33129,7 @@
         <v>19</v>
       </c>
       <c r="G839">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H839">
         <v>41</v>
@@ -33159,7 +33161,7 @@
         <v>22</v>
       </c>
       <c r="G840">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H840">
         <v>66</v>
@@ -33191,7 +33193,7 @@
         <v>25</v>
       </c>
       <c r="G841">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H841">
         <v>64</v>
@@ -33223,7 +33225,7 @@
         <v>11</v>
       </c>
       <c r="G842">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H842">
         <v>40</v>
@@ -33255,7 +33257,7 @@
         <v>16</v>
       </c>
       <c r="G843">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H843">
         <v>65</v>
@@ -33287,7 +33289,7 @@
         <v>19</v>
       </c>
       <c r="G844">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H844">
         <v>65</v>
@@ -33319,7 +33321,7 @@
         <v>22</v>
       </c>
       <c r="G845">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H845">
         <v>64</v>
@@ -33351,7 +33353,7 @@
         <v>25</v>
       </c>
       <c r="G846">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H846">
         <v>41</v>
@@ -33383,7 +33385,7 @@
         <v>11</v>
       </c>
       <c r="G847">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H847">
         <v>91</v>
@@ -33415,7 +33417,7 @@
         <v>16</v>
       </c>
       <c r="G848">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H848">
         <v>44</v>
@@ -33447,7 +33449,7 @@
         <v>19</v>
       </c>
       <c r="G849">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H849">
         <v>78</v>
@@ -33479,7 +33481,7 @@
         <v>22</v>
       </c>
       <c r="G850">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H850">
         <v>64</v>
@@ -33511,7 +33513,7 @@
         <v>25</v>
       </c>
       <c r="G851">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H851">
         <v>82</v>
@@ -33543,7 +33545,7 @@
         <v>11</v>
       </c>
       <c r="G852">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H852">
         <v>52</v>
@@ -33575,7 +33577,7 @@
         <v>16</v>
       </c>
       <c r="G853">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H853">
         <v>80</v>
@@ -33607,7 +33609,7 @@
         <v>19</v>
       </c>
       <c r="G854">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H854">
         <v>28</v>
@@ -33639,7 +33641,7 @@
         <v>22</v>
       </c>
       <c r="G855">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H855">
         <v>50</v>
@@ -33671,7 +33673,7 @@
         <v>25</v>
       </c>
       <c r="G856">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H856">
         <v>49</v>
@@ -33703,7 +33705,7 @@
         <v>11</v>
       </c>
       <c r="G857">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H857">
         <v>83</v>
@@ -33735,7 +33737,7 @@
         <v>16</v>
       </c>
       <c r="G858">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H858">
         <v>69</v>
@@ -33767,7 +33769,7 @@
         <v>19</v>
       </c>
       <c r="G859">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H859">
         <v>36</v>
@@ -33799,7 +33801,7 @@
         <v>22</v>
       </c>
       <c r="G860">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H860">
         <v>46</v>
@@ -33831,7 +33833,7 @@
         <v>25</v>
       </c>
       <c r="G861">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H861">
         <v>52</v>
@@ -33863,7 +33865,7 @@
         <v>11</v>
       </c>
       <c r="G862">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H862">
         <v>93</v>
@@ -33895,7 +33897,7 @@
         <v>16</v>
       </c>
       <c r="G863">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H863">
         <v>40</v>
@@ -33927,7 +33929,7 @@
         <v>19</v>
       </c>
       <c r="G864">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H864">
         <v>27</v>
@@ -33959,7 +33961,7 @@
         <v>22</v>
       </c>
       <c r="G865">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H865">
         <v>77</v>
@@ -33991,7 +33993,7 @@
         <v>25</v>
       </c>
       <c r="G866">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H866">
         <v>70</v>
@@ -34023,7 +34025,7 @@
         <v>11</v>
       </c>
       <c r="G867">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H867">
         <v>43</v>
@@ -34055,7 +34057,7 @@
         <v>16</v>
       </c>
       <c r="G868">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H868">
         <v>96</v>
@@ -34087,7 +34089,7 @@
         <v>19</v>
       </c>
       <c r="G869">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H869">
         <v>75</v>
@@ -34119,7 +34121,7 @@
         <v>22</v>
       </c>
       <c r="G870">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H870">
         <v>95</v>
@@ -34151,7 +34153,7 @@
         <v>25</v>
       </c>
       <c r="G871">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H871">
         <v>35</v>
@@ -34183,7 +34185,7 @@
         <v>11</v>
       </c>
       <c r="G872">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H872">
         <v>23</v>
@@ -34215,7 +34217,7 @@
         <v>16</v>
       </c>
       <c r="G873">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H873">
         <v>60</v>
@@ -34247,7 +34249,7 @@
         <v>19</v>
       </c>
       <c r="G874">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H874">
         <v>52</v>
@@ -34279,7 +34281,7 @@
         <v>22</v>
       </c>
       <c r="G875">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H875">
         <v>41</v>
@@ -34311,7 +34313,7 @@
         <v>25</v>
       </c>
       <c r="G876">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H876">
         <v>83</v>
@@ -34343,7 +34345,7 @@
         <v>11</v>
       </c>
       <c r="G877">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H877">
         <v>28</v>
@@ -34375,7 +34377,7 @@
         <v>16</v>
       </c>
       <c r="G878">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H878">
         <v>49</v>
@@ -34407,7 +34409,7 @@
         <v>19</v>
       </c>
       <c r="G879">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H879">
         <v>56</v>
@@ -34439,7 +34441,7 @@
         <v>22</v>
       </c>
       <c r="G880">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H880">
         <v>31</v>
@@ -34471,7 +34473,7 @@
         <v>25</v>
       </c>
       <c r="G881">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H881">
         <v>80</v>
@@ -34503,7 +34505,7 @@
         <v>11</v>
       </c>
       <c r="G882">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H882">
         <v>62</v>
@@ -34535,7 +34537,7 @@
         <v>16</v>
       </c>
       <c r="G883">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H883">
         <v>52</v>
@@ -34567,7 +34569,7 @@
         <v>19</v>
       </c>
       <c r="G884">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H884">
         <v>100</v>
@@ -34599,7 +34601,7 @@
         <v>22</v>
       </c>
       <c r="G885">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H885">
         <v>89</v>
@@ -34631,7 +34633,7 @@
         <v>25</v>
       </c>
       <c r="G886">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H886">
         <v>69</v>
@@ -34663,7 +34665,7 @@
         <v>11</v>
       </c>
       <c r="G887">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H887">
         <v>64</v>
@@ -34695,7 +34697,7 @@
         <v>16</v>
       </c>
       <c r="G888">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H888">
         <v>2</v>
@@ -34727,7 +34729,7 @@
         <v>19</v>
       </c>
       <c r="G889">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H889">
         <v>50</v>
@@ -34759,7 +34761,7 @@
         <v>22</v>
       </c>
       <c r="G890">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H890">
         <v>60</v>
@@ -34791,7 +34793,7 @@
         <v>25</v>
       </c>
       <c r="G891">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H891">
         <v>94</v>
@@ -34823,7 +34825,7 @@
         <v>11</v>
       </c>
       <c r="G892">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H892">
         <v>15</v>
@@ -34855,7 +34857,7 @@
         <v>16</v>
       </c>
       <c r="G893">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H893">
         <v>83</v>
@@ -34887,7 +34889,7 @@
         <v>19</v>
       </c>
       <c r="G894">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H894">
         <v>72</v>
@@ -34919,7 +34921,7 @@
         <v>22</v>
       </c>
       <c r="G895">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H895">
         <v>42</v>
@@ -34951,7 +34953,7 @@
         <v>25</v>
       </c>
       <c r="G896">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H896">
         <v>46</v>
@@ -34983,7 +34985,7 @@
         <v>11</v>
       </c>
       <c r="G897">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H897">
         <v>71</v>
@@ -35015,7 +35017,7 @@
         <v>16</v>
       </c>
       <c r="G898">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H898">
         <v>57</v>
@@ -35047,7 +35049,7 @@
         <v>19</v>
       </c>
       <c r="G899">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H899">
         <v>75</v>
@@ -35079,7 +35081,7 @@
         <v>22</v>
       </c>
       <c r="G900">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H900">
         <v>79</v>
@@ -35111,7 +35113,7 @@
         <v>25</v>
       </c>
       <c r="G901">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H901">
         <v>52</v>
@@ -35143,7 +35145,7 @@
         <v>11</v>
       </c>
       <c r="G902">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H902">
         <v>45</v>
@@ -35175,7 +35177,7 @@
         <v>16</v>
       </c>
       <c r="G903">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H903">
         <v>53</v>
@@ -35207,7 +35209,7 @@
         <v>19</v>
       </c>
       <c r="G904">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H904">
         <v>58</v>
@@ -35239,7 +35241,7 @@
         <v>22</v>
       </c>
       <c r="G905">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H905">
         <v>46</v>
@@ -35271,7 +35273,7 @@
         <v>25</v>
       </c>
       <c r="G906">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H906">
         <v>55</v>
@@ -35303,7 +35305,7 @@
         <v>11</v>
       </c>
       <c r="G907">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H907">
         <v>55</v>
@@ -35335,7 +35337,7 @@
         <v>16</v>
       </c>
       <c r="G908">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H908">
         <v>73</v>
@@ -35367,7 +35369,7 @@
         <v>19</v>
       </c>
       <c r="G909">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H909">
         <v>48</v>
@@ -35399,7 +35401,7 @@
         <v>22</v>
       </c>
       <c r="G910">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H910">
         <v>78</v>
@@ -35431,7 +35433,7 @@
         <v>25</v>
       </c>
       <c r="G911">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H911">
         <v>70</v>
@@ -35463,7 +35465,7 @@
         <v>11</v>
       </c>
       <c r="G912">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H912">
         <v>49</v>
@@ -35495,7 +35497,7 @@
         <v>16</v>
       </c>
       <c r="G913">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H913">
         <v>62</v>
@@ -35527,7 +35529,7 @@
         <v>19</v>
       </c>
       <c r="G914">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H914">
         <v>25</v>
@@ -35559,7 +35561,7 @@
         <v>22</v>
       </c>
       <c r="G915">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H915">
         <v>73</v>
@@ -35591,7 +35593,7 @@
         <v>25</v>
       </c>
       <c r="G916">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H916">
         <v>46</v>
@@ -35623,7 +35625,7 @@
         <v>11</v>
       </c>
       <c r="G917">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H917">
         <v>75</v>
@@ -35655,7 +35657,7 @@
         <v>16</v>
       </c>
       <c r="G918">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H918">
         <v>80</v>
@@ -35687,7 +35689,7 @@
         <v>19</v>
       </c>
       <c r="G919">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H919">
         <v>67</v>
@@ -35719,7 +35721,7 @@
         <v>22</v>
       </c>
       <c r="G920">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H920">
         <v>41</v>
@@ -35751,7 +35753,7 @@
         <v>25</v>
       </c>
       <c r="G921">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H921">
         <v>89</v>
@@ -35783,7 +35785,7 @@
         <v>11</v>
       </c>
       <c r="G922">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H922">
         <v>65</v>
@@ -35815,7 +35817,7 @@
         <v>16</v>
       </c>
       <c r="G923">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H923">
         <v>54</v>
@@ -35847,7 +35849,7 @@
         <v>19</v>
       </c>
       <c r="G924">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H924">
         <v>59</v>
@@ -35879,7 +35881,7 @@
         <v>22</v>
       </c>
       <c r="G925">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H925">
         <v>35</v>
@@ -35911,7 +35913,7 @@
         <v>25</v>
       </c>
       <c r="G926">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H926">
         <v>51</v>
@@ -35943,7 +35945,7 @@
         <v>11</v>
       </c>
       <c r="G927">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H927">
         <v>78</v>
@@ -35975,7 +35977,7 @@
         <v>16</v>
       </c>
       <c r="G928">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H928">
         <v>37</v>
@@ -36007,7 +36009,7 @@
         <v>19</v>
       </c>
       <c r="G929">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H929">
         <v>73</v>
@@ -36039,7 +36041,7 @@
         <v>22</v>
       </c>
       <c r="G930">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H930">
         <v>60</v>
@@ -36071,7 +36073,7 @@
         <v>25</v>
       </c>
       <c r="G931">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H931">
         <v>41</v>
@@ -36103,7 +36105,7 @@
         <v>11</v>
       </c>
       <c r="G932">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H932">
         <v>90</v>
@@ -36135,7 +36137,7 @@
         <v>16</v>
       </c>
       <c r="G933">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H933">
         <v>99</v>
@@ -36167,7 +36169,7 @@
         <v>19</v>
       </c>
       <c r="G934">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H934">
         <v>36</v>
@@ -36199,7 +36201,7 @@
         <v>22</v>
       </c>
       <c r="G935">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H935">
         <v>56</v>
@@ -36231,7 +36233,7 @@
         <v>25</v>
       </c>
       <c r="G936">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H936">
         <v>58</v>
@@ -36263,7 +36265,7 @@
         <v>11</v>
       </c>
       <c r="G937">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H937">
         <v>69</v>
@@ -36295,7 +36297,7 @@
         <v>16</v>
       </c>
       <c r="G938">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H938">
         <v>27</v>
@@ -36327,7 +36329,7 @@
         <v>19</v>
       </c>
       <c r="G939">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H939">
         <v>30</v>
@@ -36359,7 +36361,7 @@
         <v>22</v>
       </c>
       <c r="G940">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H940">
         <v>81</v>
@@ -36391,7 +36393,7 @@
         <v>25</v>
       </c>
       <c r="G941">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H941">
         <v>75</v>
@@ -36423,7 +36425,7 @@
         <v>11</v>
       </c>
       <c r="G942">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H942">
         <v>28</v>
@@ -36455,7 +36457,7 @@
         <v>16</v>
       </c>
       <c r="G943">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H943">
         <v>25</v>
@@ -36487,7 +36489,7 @@
         <v>19</v>
       </c>
       <c r="G944">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H944">
         <v>45</v>
@@ -36519,7 +36521,7 @@
         <v>22</v>
       </c>
       <c r="G945">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H945">
         <v>56</v>
@@ -36551,7 +36553,7 @@
         <v>25</v>
       </c>
       <c r="G946">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H946">
         <v>82</v>
@@ -36583,7 +36585,7 @@
         <v>11</v>
       </c>
       <c r="G947">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H947">
         <v>32</v>
@@ -36615,7 +36617,7 @@
         <v>16</v>
       </c>
       <c r="G948">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H948">
         <v>53</v>
@@ -36647,7 +36649,7 @@
         <v>19</v>
       </c>
       <c r="G949">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H949">
         <v>74</v>
@@ -36679,7 +36681,7 @@
         <v>22</v>
       </c>
       <c r="G950">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H950">
         <v>69</v>
@@ -36711,7 +36713,7 @@
         <v>25</v>
       </c>
       <c r="G951">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H951">
         <v>25</v>
@@ -36743,7 +36745,7 @@
         <v>11</v>
       </c>
       <c r="G952">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H952">
         <v>50</v>
@@ -36775,7 +36777,7 @@
         <v>16</v>
       </c>
       <c r="G953">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H953">
         <v>96</v>
@@ -36807,7 +36809,7 @@
         <v>19</v>
       </c>
       <c r="G954">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H954">
         <v>45</v>
@@ -36839,7 +36841,7 @@
         <v>22</v>
       </c>
       <c r="G955">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H955">
         <v>51</v>
@@ -36871,7 +36873,7 @@
         <v>25</v>
       </c>
       <c r="G956">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H956">
         <v>45</v>
@@ -36903,7 +36905,7 @@
         <v>11</v>
       </c>
       <c r="G957">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H957">
         <v>45</v>
@@ -36935,7 +36937,7 @@
         <v>16</v>
       </c>
       <c r="G958">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H958">
         <v>74</v>
@@ -36967,7 +36969,7 @@
         <v>19</v>
       </c>
       <c r="G959">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H959">
         <v>90</v>
@@ -36999,7 +37001,7 @@
         <v>22</v>
       </c>
       <c r="G960">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H960">
         <v>39</v>
@@ -37031,7 +37033,7 @@
         <v>25</v>
       </c>
       <c r="G961">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H961">
         <v>51</v>
@@ -37063,7 +37065,7 @@
         <v>11</v>
       </c>
       <c r="G962">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H962">
         <v>84</v>
@@ -37095,7 +37097,7 @@
         <v>16</v>
       </c>
       <c r="G963">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H963">
         <v>74</v>
@@ -37127,7 +37129,7 @@
         <v>19</v>
       </c>
       <c r="G964">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H964">
         <v>74</v>
@@ -37159,7 +37161,7 @@
         <v>22</v>
       </c>
       <c r="G965">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H965">
         <v>70</v>
@@ -37191,7 +37193,7 @@
         <v>25</v>
       </c>
       <c r="G966">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H966">
         <v>50</v>
@@ -37223,7 +37225,7 @@
         <v>11</v>
       </c>
       <c r="G967">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H967">
         <v>81</v>
@@ -37255,7 +37257,7 @@
         <v>16</v>
       </c>
       <c r="G968">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H968">
         <v>54</v>
@@ -37287,7 +37289,7 @@
         <v>19</v>
       </c>
       <c r="G969">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H969">
         <v>87</v>
@@ -37319,7 +37321,7 @@
         <v>22</v>
       </c>
       <c r="G970">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H970">
         <v>58</v>
@@ -37351,7 +37353,7 @@
         <v>25</v>
       </c>
       <c r="G971">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H971">
         <v>63</v>
@@ -37383,7 +37385,7 @@
         <v>11</v>
       </c>
       <c r="G972">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H972">
         <v>55</v>
@@ -37415,7 +37417,7 @@
         <v>16</v>
       </c>
       <c r="G973">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H973">
         <v>91</v>
@@ -37447,7 +37449,7 @@
         <v>19</v>
       </c>
       <c r="G974">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H974">
         <v>71</v>
@@ -37479,7 +37481,7 @@
         <v>22</v>
       </c>
       <c r="G975">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H975">
         <v>75</v>
@@ -37511,7 +37513,7 @@
         <v>25</v>
       </c>
       <c r="G976">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H976">
         <v>51</v>
@@ -37543,7 +37545,7 @@
         <v>11</v>
       </c>
       <c r="G977">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H977">
         <v>60</v>
@@ -37575,7 +37577,7 @@
         <v>16</v>
       </c>
       <c r="G978">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H978">
         <v>66</v>
@@ -37607,7 +37609,7 @@
         <v>19</v>
       </c>
       <c r="G979">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H979">
         <v>69</v>
@@ -37639,7 +37641,7 @@
         <v>22</v>
       </c>
       <c r="G980">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H980">
         <v>37</v>
@@ -37671,7 +37673,7 @@
         <v>25</v>
       </c>
       <c r="G981">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H981">
         <v>71</v>
@@ -37703,7 +37705,7 @@
         <v>11</v>
       </c>
       <c r="G982">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H982">
         <v>73</v>
@@ -37735,7 +37737,7 @@
         <v>16</v>
       </c>
       <c r="G983">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H983">
         <v>61</v>
@@ -37767,7 +37769,7 @@
         <v>19</v>
       </c>
       <c r="G984">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H984">
         <v>76</v>
@@ -37799,7 +37801,7 @@
         <v>22</v>
       </c>
       <c r="G985">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H985">
         <v>66</v>
@@ -37831,7 +37833,7 @@
         <v>25</v>
       </c>
       <c r="G986">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H986">
         <v>89</v>
@@ -37863,7 +37865,7 @@
         <v>11</v>
       </c>
       <c r="G987">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H987">
         <v>67</v>
@@ -37895,7 +37897,7 @@
         <v>16</v>
       </c>
       <c r="G988">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H988">
         <v>42</v>
@@ -37927,7 +37929,7 @@
         <v>19</v>
       </c>
       <c r="G989">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H989">
         <v>79</v>
@@ -37959,7 +37961,7 @@
         <v>22</v>
       </c>
       <c r="G990">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H990">
         <v>100</v>
@@ -37991,7 +37993,7 @@
         <v>25</v>
       </c>
       <c r="G991">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H991">
         <v>42</v>
@@ -38023,7 +38025,7 @@
         <v>11</v>
       </c>
       <c r="G992">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H992">
         <v>30</v>
@@ -38055,7 +38057,7 @@
         <v>16</v>
       </c>
       <c r="G993">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H993">
         <v>52</v>
@@ -38087,7 +38089,7 @@
         <v>19</v>
       </c>
       <c r="G994">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H994">
         <v>75</v>
@@ -38119,7 +38121,7 @@
         <v>22</v>
       </c>
       <c r="G995">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H995">
         <v>78</v>
@@ -38151,7 +38153,7 @@
         <v>25</v>
       </c>
       <c r="G996">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H996">
         <v>53</v>
@@ -38183,7 +38185,7 @@
         <v>11</v>
       </c>
       <c r="G997">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H997">
         <v>34</v>
@@ -38215,7 +38217,7 @@
         <v>16</v>
       </c>
       <c r="G998">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H998">
         <v>88</v>
@@ -38247,7 +38249,7 @@
         <v>19</v>
       </c>
       <c r="G999">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H999">
         <v>66</v>
@@ -38279,7 +38281,7 @@
         <v>22</v>
       </c>
       <c r="G1000">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H1000">
         <v>65</v>
@@ -38311,7 +38313,7 @@
         <v>25</v>
       </c>
       <c r="G1001">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H1001">
         <v>63</v>
@@ -38343,7 +38345,7 @@
         <v>19</v>
       </c>
       <c r="G1002">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H1002">
         <v>68</v>
